--- a/result/生词本导入模版_10.xlsx
+++ b/result/生词本导入模版_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,64 +458,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>veracious</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adj. 诚实的，说实话的： being in the habit of telling the truth
+adj. 精确的，准确的： precise, accurate</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>a veracious witness  诚实的证人
+He has a reputation for being veracious, so people generally takehis word for things.  他诚实的名声让其他人通常都相信他说的话
+a novel that presents a fairly veracious and unvarnished picture of the lives of affluent suburbanites  一部准确而不加修饰地描述郊区富人生活的小说</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>verbatim</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>adv. 逐字地，一字不差地： in the exact words</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>You can't just copy the encyclopedia article verbatim for your report - that's plagiarism.   你 不 能 一 字 不 差地抄百科全书上的内容——这是剽窃。</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>verbose</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>adj. 冗长的，啰嗦的： containing more words than necessary</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>a verbose orator  啰嗦的演讲者
 She has a verbose writing style.   她的文风很啰嗦。</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>verdant</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>adj. （因长满植物而）翠绿的，郁郁葱葱的： green with vegetation; covered with green growth</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>verdant fields  翠绿的田野</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>verify</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>vt. 校验，证实： to determine or test the truth or accuracy of, as by comparison, investigation, orreference</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>We need to verify your passport.   我们需要校验阁下的护照。</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -525,17 +528,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>verisimilar</t>
+          <t>verdant</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>adj. 似乎真实的： appearing to be true or real</t>
+          <t>adj. （因长满植物而）翠绿的，郁郁葱葱的： green with vegetation; covered with green growth</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>a verisimilar tale  一个似乎为真的传奇</t>
+          <t>verdant fields  翠绿的田野</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -547,17 +550,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>veritable</t>
+          <t>verify</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>adj. 真正的，确实的： being in fact the thing named and not false, unreal, or imaginary</t>
+          <t>vt. 校验，证实： to determine or test the truth or accuracy of, as by comparison, investigation, orreference</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>a veritable manuscript  一份原稿</t>
+          <t>We need to verify your passport.   我们需要校验阁下的护照。</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -569,112 +572,112 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>verisimilar</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>adj. 似乎真实的： appearing to be true or real</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>a verisimilar tale  一个似乎为真的传奇</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>veritable</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>adj. 真正的，确实的： being in fact the thing named and not false, unreal, or imaginary</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>a veritable manuscript  一份原稿</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>vernacular</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>n. 方言： a nonstandard language or dialect of a place, region, or country
 adj. 非正式的，口头的： used in or suitable for speech and not formal writing</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>phrases that occur in the common vernacular  常见方言中的词组
 writes essays in a very easy-to-read, vernacular style  用一种易懂的口头化风格写作</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>versatile</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>adj. 多才多艺的，全能的： able to do many different kinds of things
 adj. 易改变的： changing or fluctuating readily</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>We have found a versatile baseball player who can play any position.  我们发现了一个能打任何位置的全能型球员。
 a versatile disposition  多变的性格</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>verse</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>vt. 使精通，使熟悉： to familiarize by close association, study, or experience</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">well versed in the theater  精通剧院
 While in prison, he versed himself in the rights of the incarcerated.  </t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>vertigo</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>n. 眩晕： a dizzy confused state of mind</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>He had a dreadful attack of vertigo at the top of the tower.   他站在塔顶，感到一阵令人窒息的眩晕。</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>verve</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>n. 活力，热情： vitality, liveliness</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>The instrumentalists played with skill and verve.  器乐表演者们有着高超的技巧与饱满的热情</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -684,157 +687,153 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>vertigo</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>n. 眩晕： a dizzy confused state of mind</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>He had a dreadful attack of vertigo at the top of the tower.   他站在塔顶，感到一阵令人窒息的眩晕。</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>verve</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>n. 活力，热情： vitality, liveliness</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The instrumentalists played with skill and verve.  器乐表演者们有着高超的技巧与饱满的热情</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>vessel</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>n.管： a tube or canal (as an artery) in which a body fluid is contained and conveyed or circulated
 n. 船，舰艇： a watercraft bigger than a rowboat</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>blood vessel  血管
 the largest military vessel afloat  最大的军用舰艇</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>vestige</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>n. 微小的遗迹，小痕迹： the smallest quantity or trace</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>A few strange words carved on a stone were the only vestige of the lost civilization.  石 碑 上 刻 着 的 几个奇怪的字符是这个失落文明的唯一的遗迹。
 the fossilized vestige of a dinosaur that traversed that muddylandscape millions of years ago  千万年横跨那块泥泞土壤的恐龙的化石碎片</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>vestigial</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>adj. 退化的，发育不全的： (of certain organs or parts of organisms) having attained a simple structure本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。and reduced size and function during the evolution of the species</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>snake that has vestigial limbs  拥有退化四肢的蛇</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adj. 退化的，发育不全的： (of certain organs or parts of organisms) having attained a simple structure</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>veteran</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>n. 老兵，有丰富经验的人： one having knowledge or ability gained through long experience
 adj. 经验丰富的，资深的： having or showing exceptional knowledge, experience, or skill in a fieldof endeavor</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>As a veteran of overseas travel, she offered us solid advice about planning our trip.  作 为 一 名 资 深 的旅行家，她给了我们提供了许多关于旅行规划的中肯建议。
 She is a veteran teacher who can mentor new teachers.  她的教师资历都老到可以教新教师了。</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>veto</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>n./vt. 否决，禁止： to forbid or prohibit authoritatively</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>The President vetoed the bill.  总统否决了提案。
 We wanted to do a cross-country trip, but our parentsvetoed it.  我们想来一次跨国旅行，但是父母不肯批准。</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>vex</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>vt. 使烦恼，使恼怒： to bring trouble, distress, or agitation to</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>vexed by her son's failure to clean his room  因为她儿子不清理房间而恼怒</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>viable</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>adj. 可行的： capable of being done or carried out</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>a viable solution to the problem  解决问题的一个可行方案</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -844,17 +843,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vicarious</t>
+          <t>vex</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>adj. 代理的，取代的： performed or suffered by one person as a substitute for another or to thebenefit or advantage of another</t>
+          <t>vt. 使烦恼，使恼怒： to bring trouble, distress, or agitation to</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>use Internet as a vicarious form of social life  把互联网当作一种虚拟的社交生活</t>
+          <t>vexed by her son's failure to clean his room  因为她儿子不清理房间而恼怒</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -866,65 +865,65 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>viable</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>adj. 可行的： capable of being done or carried out</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>a viable solution to the problem  解决问题的一个可行方案</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>vicarious</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>adj. 代理的，取代的： performed or suffered by one person as a substitute for another or to thebenefit or advantage of another</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>use Internet as a vicarious form of social life  把互联网当作一种虚拟的社交生活</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>vicious</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>adj. 凶恶的，恶毒的： having or showing the desire to inflict severe pain and suffering on others
 adj. 猛烈的： marked by violence or ferocity</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>vicious slander  恶意的诽谤
 a vicious storm ripped through the region  在境内肆虐的强烈风暴</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>vicissitude</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>n. 自然变化： natural change or mutation visible in nature or in human affairs</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>vicissitude of daily life  日常生活的跌宕起伏</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>victimize</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>vt. 使受骗： to subject to deception or fraud</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>victimized by a confidence man with a slick story  被一个骗子用圆滑的故事欺骗</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -934,110 +933,110 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>vicissitude</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>n. 自然变化： natural change or mutation visible in nature or in human affairs</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vicissitude of daily life  日常生活的跌宕起伏</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>victimize</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>vt. 使受骗： to subject to deception or fraud</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>victimized by a confidence man with a slick story  被一个骗子用圆滑的故事欺骗</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>vigilant</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>adj. 警醒的，警惕的： alertly watchful especially to avoid danger</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Police warned the public to be vigilant and report anything suspicious.  警方要求公众保持警惕，并上报任何有嫌疑的人或事。
 When traveling through the city, tourists should be extra vigilant.   在这个城市旅行的游客应该保持格外的警惕。</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>vignette</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>n. 简介短文： a vivid representation in words of someone or something</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>The general's memoirs are filled with revealing vignettes of some of the war’s most compellingpersonalities.   将军的回忆录里充满了短小的文章，它们揭露了战争中最引人注意的人物。</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>vigorous</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>adj. 精力旺盛的： having active strength of body or mind
 adj. 强健的： able to withstand hardship, strain, or exposure</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>He remains vigorous despite being over 80 years old.   尽管他已 80 高龄，但仍活力不减
 vigorous and sturdy little sheep bred to live in mountainous regions  在山区喂养的健壮的小羊</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>vilify</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>vt. 诽谤，辱骂： to utter slanderous and abusive statements against</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>be vilified by the press because of her radical views  因为她激进的观点而被媒体抨击</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>vim</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>n. 活力，精力： robust energy and enthusiasm</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A little rest should give me back some of my vim.   稍事休息一会我应该就能回复些许精力</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1047,158 +1046,158 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>vilify</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>vt. 诽谤，辱骂： to utter slanderous and abusive statements against</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>be vilified by the press because of her radical views  因为她激进的观点而被媒体抨击</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>vim</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>n. 活力，精力： robust energy and enthusiasm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A little rest should give me back some of my vim.   稍事休息一会我应该就能回复些许精力</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>vindicate</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>vt. 为…平反，为…辩护，使无罪： to free from allegation or blame
 vt. 证明，证实：to give evidence or testimony to the truth or factualness of</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>The evidence would completely vindicate him.   这个证据将彻底证明他的清白。
 Recent discoveries have generally vindicated the physicist's theories.  近期的发现整体上证明了物理学家的理论。</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>vindictive</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>adj. 复仇的（有寻仇倾向的）： disposed to seek revenge</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>vindictive hatred for his brother  对他兄弟的仇恨</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>virtuoso</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>n. 艺术鉴赏家，专家： a person with masterly skill or technique in the arts
 adj. 经验丰富的，技艺精湛的： having or showing exceptional knowledge, experience, or skill in afield of endeavor</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>a violin virtuoso  资深小提琴艺术家
 The American virtuoso cellist Lynn Harrell joins the orchestra as soloist in Shostakovich’s technicallychallenging Cello Concerto No 2.  来自美国的技艺精湛的大提琴家林恩·哈雷尔作为独奏者加入了乐队，共同演绎肖斯塔科维奇充满挑战的《第二大提琴协奏曲》。</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>virtuous</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>adj. 品德高尚的，正直的： having or showing virtue, especially moral excellence</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Virtuous behavior is its own reward.   美德本身就是一种回报。
 She felt that she had made a virtuousdecision by donating the money to charity.  她觉得把钱捐赠给慈善基金是一个高尚的决定。</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>virulent</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>adj. 有毒的： extremely poisonous or venomous
 adj. 凶残的： marked by a rapid, severe, and destructive course</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>virulent bacteria  有毒的细菌
 a virulent look on her face  面露凶色</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>viscid</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>adj. 有粘性的： having a glutinous consistency</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>viscid tree resin  粘性的树脂</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>viscous</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>adj. 粘稠的，粘的： viscid; sticky</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>viscous syrup that takes forever to pour from a narrow-neck bottle  不知要花多久才能从窄口瓶中倒出来的粘稠糖浆本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1208,113 +1207,113 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>viscid</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>adj. 有粘性的： having a glutinous consistency</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>viscid tree resin  粘性的树脂</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>viscous</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>adj. 粘稠的，粘的： viscid; sticky</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>viscous syrup that takes forever to pour from a narrow-neck bottle  不知要花多久才能从窄口瓶中倒出来的粘稠糖浆</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>visionary</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>adj. 空想的，不切实际的： having or marked by a tendency to be guided more by ideals than by reality
 adj. 幻觉的： not real and existing only in the imagination
 adj. 有远见的： having or marked by foresight and imagination</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>a visionary plan for a manned flight to Mars  一个构想中的载人火星计划
 claimed to have had visionary experiences of hell  宣称有过到达地狱的幻觉
 a visionary and legendary leader  一个有远见的传奇性领袖</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>vitality</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>n. 活力，生命力： physical or mental vigor especially when highly developed</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Her vitality seemed to spread to everyone around her.   她的活力似乎能影响身边的每一个人</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>vitiate</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>v. 削弱，损害： to reduce the value or impair the quality of
 v. （在道德、审美上）降低，堕落： to debase in moral or aesthetic status</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Too many grammatical errors can vitiate the soundness of your writing, so double-check is recommendedbefore submission.  太多的语法错误会削弱你论证的力度，所以强烈建议交稿前检查几遍。
 Penchant for coarse language vitiates what is otherwise a refined literary style.  使 用 粗 俗语 言 的倾 向使得本该是一个高雅的文体变得不堪入目。</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>vitriolic</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>adj. （言辞）刻薄的： bitterly scathing</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>vitriolic criticism  刻薄的批评</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>vituperate</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>vt. 谩骂，责骂： to abuse or censure severely or abusively</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>was vituperated for betraying his friends  因为背叛他的朋友而被责骂</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1324,17 +1323,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>vivacious</t>
+          <t>vitriolic</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>adj. 活泼的，快活的： lively in temper, conduct, or spirit</t>
+          <t>adj. （言辞）刻薄的： bitterly scathing</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>a vivacious girl who became a successful sales rep  一个成为了成功销售代表的活泼女孩</t>
+          <t>vitriolic criticism  刻薄的批评</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1346,17 +1345,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>vociferous</t>
+          <t>vituperate</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>adj. 喧哗的，大叫大嚷的： making, given to, or marked by noisy and vehement outcry</t>
+          <t>vt. 谩骂，责骂： to abuse or censure severely or abusively</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Vociferous opponents of the bill protested angrily outside the Congress.   议案的反对者在国会外愤怒地举行了声势浩大的抗议活动</t>
+          <t>was vituperated for betraying his friends  因为背叛他的朋友而被责骂</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1368,64 +1367,64 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>vivacious</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>adj. 活泼的，快活的： lively in temper, conduct, or spirit</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>a vivacious girl who became a successful sales rep  一个成为了成功销售代表的活泼女孩</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>vociferous</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>adj. 喧哗的，大叫大嚷的： making, given to, or marked by noisy and vehement outcry</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Vociferous opponents of the bill protested angrily outside the Congress.   议案的反对者在国会外愤怒地举行了声势浩大的抗议活动</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>volatile</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>adj. 多变的： characterized by or subject to rapid or unexpected change</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>a boss of volatile moods  一个性情多变的老板
 The stock market can be very volatile.   股 市 瞬 息 万变。</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>volition</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>n. 意志，自愿选择的行为： the act or power of making one's own choices or decisions</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>beyond his volition or control  超出了他的意志和控制范围</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>voluble</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>adj. 健谈的，话多的： characterized by ready or rapid speech</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>The voluble gadfly ruined the party.   聚会被那个话又多又让人讨厌的人破坏了。</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1435,17 +1434,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>voluminous</t>
+          <t>volition</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>adj. 卷数多的，大量的，庞大的： having great volume, fullness, size, or number</t>
+          <t>n. 意志，自愿选择的行为： the act or power of making one's own choices or decisions</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>trying to keep a track of voluminous academic database  尝试追踪数目庞大的学术数据库</t>
+          <t>beyond his volition or control  超出了他的意志和控制范围</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1457,17 +1456,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>voluptuous</t>
+          <t>voluble</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>adj. 奢侈逸乐的，沉溺酒色的： given to or spent in enjoyments of luxury, pleasure, or sensualgratifications</t>
+          <t>adj. 健谈的，话多的： characterized by ready or rapid speech</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>They spent a long and voluptuous holiday in Venice.  他们在威尼斯度过了一个漫长而奢华的假期。</t>
+          <t>The voluble gadfly ruined the party.   聚会被那个话又多又让人讨厌的人破坏了。</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1479,65 +1478,65 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>voluminous</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>adj. 卷数多的，大量的，庞大的： having great volume, fullness, size, or number</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>trying to keep a track of voluminous academic database  尝试追踪数目庞大的学术数据库</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>voluptuous</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>adj. 奢侈逸乐的，沉溺酒色的： given to or spent in enjoyments of luxury, pleasure, or sensualgratifications</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>They spent a long and voluptuous holiday in Venice.  他们在威尼斯度过了一个漫长而奢华的假期。</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>voracious</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>adj. 有很大食量的，贪吃的： having a huge appetite
 adj. 贪婪的，如饥似渴的： having or marked by an insatiable appetite for an activity or pursuit</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>He has a voracious appetite.  他的食量惊人。
 a voracious reader who locked himself up in the study  一个把自己锁在书房的贪婪的读者</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>votary</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>n. 崇拜者，信徒： a person who is fervently devoted, as to a leader or ideal; a faithful follower</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>votaries of the religious leader  宗教领袖的追随者们</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>vouch</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>vi. 担保，声称为真： to declare (something) to be true or genuine; to give a guarantee</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>willing to vouch for her integrity  愿意担保她的人格</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1547,88 +1546,88 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>votary</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>n. 崇拜者，信徒： a person who is fervently devoted, as to a leader or ideal; a faithful follower</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>votaries of the religious leader  宗教领袖的追随者们</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>vouch</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>vi. 担保，声称为真： to declare (something) to be true or genuine; to give a guarantee</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>willing to vouch for her integrity  愿意担保她的人格</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>vulgar</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>adj. 粗俗的，无教养的： morally crude, undeveloped, or unregenerate
 adj. 口头的，非正式的： used in or suitable for speech and not formal writing</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">He is a vulgar man but his music is quite divine.  虽然他是一个粗俗的人，但他的音乐却十分神圣。
 Latin was once the language of scholars, and English the vulgar language used by the common people.  </t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>vulnerable</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>adj. 易受攻击的，脆弱的： open to attack or damage</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>The troops were deployed in a vulnerable position.   部队被部署在了一个容易遭受攻击的位置。
 The fortwas undefended and vulnerable.  堡垒没有设防，十分脆弱。</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>waddle</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>vi. 摇摇摆摆地走： to walk with short steps that tilt the body from side to side</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>The duck waddled back into the water.  鸭子一摇一摆地回到了水中</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>waffle</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>vi. 胡扯： to talk or write foolishly</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>This lecturer will waffle on for hours.   这个老师会胡说八道地扯几个小时。</t>
-        </is>
-      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1638,251 +1637,240 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>waddle</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>vi. 摇摇摆摆地走： to walk with short steps that tilt the body from side to side</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>The duck waddled back into the water.  鸭子一摇一摆地回到了水中</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>waffle</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>vi. 胡扯： to talk or write foolishly</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>This lecturer will waffle on for hours.   这个老师会胡说八道地扯几个小时。</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>waft</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>vt. 飘荡，漂浮： to float easily and gently, as on the air</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Heavenly aromas wafted from the kitchen.  令人欣悦的香气从厨房飘出。
 A feather wafted past usand settled on the grass.   一片羽毛飘过我们身边，落在草地上。</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>wag</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>n. 幽默诙谐的人： a humorous or droll person
 vt. 摆动： to move to and fro or up and down especially with quick jerky motions</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Some wag wrote a droll satire on the scandal.   一些有才的人就丑闻写了一个搞怪的讽刺。
 The dog wagged its tail.  狗摆动着它的尾巴。</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>wan</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>adj. 苍白的，病态的： suggestive of poor health</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>She looks a little wan after all that tiring work.   在完成那些繁重的工作之后她看起来有些虚弱。</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>wanderlust</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>n. 旅行癖： a very strong or irresistible impulse to travel</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>His wanderlust would not allow him to stay long in one spot.   他对旅行的渴望让他不可能在一处久待。</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>wane</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>vi. 减少，衰退，降低： to decrease in size, extent, or degree</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">In the evening the storm finally waned.  傍晚时分风暴终于减弱了。
 The moon waxes and then wanes.  </t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>want</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>n. 短缺： the condition or quality of lacking something usual or necessary
 vt. 渴望： to have a strong desire for</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>There's a notable want of teachers in rural areas.   农村地区存在着值得注意的师资短缺问题
 I want a new car so badly! 我太想要一辆新车了！
 She wanted more time to finish the test.  她 希 望能有更多的时间来完成考试。</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>warmonger</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>n. 好战者： one who urges or attempts to stir up war</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Fortunately, the warmongers met with overwhelming opposition.   幸运的是，好战者们碰到了巨大的阻力。</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>warp</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>vt. 使偏向： to turn from a correct or proper course
-vt. 扭曲，变形： to twist (something) out of a natural or normal shape or condition
-vt. 曲解： to change so much as to create a wrong impression or alter the meaning of</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>The heat caused the wood to warp.   高温使得木头变形了。
-The faulty English translation really warps the meaning of the original Chinese text.  错 误 的 英 语 翻 译曲解了中文的原意。</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>warrant</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>vt. 承诺： to assume responsibility for the satisfactory quality or performance of
 vt. 批准，认可： to give official acceptance of as satisfactory</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>The computer company unconditionally warrants all of its products for one full year.  这 个 电 脑 公 司 对所有的产品提供为期一年的质量保证。
 The law warrants these measures.   法律允许这些措施。</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>wary</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>adj. 小心的，机警的，谨慎的： marked by keen caution, cunning, and watchfulness</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>kept a wary eye out for signs of the enemy  对敌人出现的征兆保持警惕</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>wastrel</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>n. 肆意挥霍的人，败家子： one who expends resources foolishly and self-indulgently</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>He ended up being a wastrel and a drunkard.   他最后成了一个花天酒地的败家子。</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>watershed</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>n. 重要关头，分水岭： a crucial dividing point: turning point</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>a watershed moment in her life  她命运的分水岭</t>
-        </is>
-      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1892,151 +1880,151 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>wary</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>adj. 小心的，机警的，谨慎的： marked by keen caution, cunning, and watchfulness</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>kept a wary eye out for signs of the enemy  对敌人出现的征兆保持警惕</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>wastrel</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>n. 肆意挥霍的人，败家子： one who expends resources foolishly and self-indulgently</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>He ended up being a wastrel and a drunkard.   他最后成了一个花天酒地的败家子。</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>watershed</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>n. 重要关头，分水岭： a crucial dividing point: turning point</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>a watershed moment in her life  她命运的分水岭</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>wax</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>vi. 月亮渐满： to increase in phase or intensity, used chiefly of the moon, other satellites, and inferiorplanets
 vt. 用蜡涂、处理或上光： to coat (something) with a slippery substance in order to reduce friction</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>waylay</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>vt. 埋伏，伏击： to lie in wait for or attack from ambush</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Unsuspecting tourists are often waylaid by gangs.   不警惕的旅客们常常被犯罪团伙偷袭。
 We werewaylaid by a group of protestors with rocks.   我们被一群示威者用石头偷袭了。</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>welter</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>n. 混乱；动乱： a state of wild disorder</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>There was a welter of pushing and shoving.   到处是推搡和拥挤的混乱局面。
 The troop withdrawalwould plunge the country into a welter of anarchy and endless civil war.   撤军会使得这个国家陷入无政府的动乱和无尽的内战中。</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>wheedle</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>vt. （用花言巧语）诱惑，哄骗： to persuade or attempt to persuade by flattery or guile</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>wheedled him into working for them  哄骗他为他们工作
 She pleaded and wheedled, but I wouldn't beswayed.   她软磨硬泡地求我，但我仍不动摇。</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>whet</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>vt. 磨快： to sharpen by rubbing on or with something (as a stone)</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>whetted the dagger with the grindstone  用磨石把匕首磨锋利</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>whimsical</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>adj. 反复无常的： prone to sudden illogical changes of mind, ideas, or actions</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>It’s hard to make plans with such a whimsical friend.  和这样一个反复无常的朋友做决定是很困难的。</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>wholesome</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>adj. 有益身心健康的： promoting mental, moral, or social health</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>trying to eat a more wholesome diet  尽可能有更健康的饮食习惯</t>
-        </is>
-      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2046,17 +2034,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>wicked</t>
+          <t>whet</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>adj. 邪恶的： morally very bad</t>
+          <t>vt. 磨快： to sharpen by rubbing on or with something (as a stone)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>a wicked urge to steal just for the sake of stealing  纯粹为了偷盗而偷盗的邪恶冲动</t>
+          <t>whetted the dagger with the grindstone  用磨石把匕首磨锋利</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2068,17 +2056,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>wince</t>
+          <t>whiff</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>vi. 畏缩： to shrink back involuntarily as from pain</t>
+          <t>n. 微风： a quick puff or slight gust especially of air, odor, gas, smoke, or spray
+n. 细微的信号，略微痕迹： an almost imperceptible sign of something</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>winced at the horrible corpses  在令人恐惧的尸体面前畏缩</t>
+          <t>A whiff of fresh air reinvigorated him.   一股清新的空气让他恢复了活力。
+Even a whiff of appreciation for everything I've done for her would have been nice.   她哪怕是对我为她的付出流露出一丁点的感激之情也好啊。
+Humanity is unregenerable and hates the language of conformity, sinceconformity has a whiff of the inhuman about it.   (Anthony Burgess) 人性是不能改造也无发统一的，因为一致性本身带有一点点不人道的意味。（安东尼•伯吉斯）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2090,17 +2081,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>windbag</t>
+          <t>whimsical</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>n. 健谈的人： an exhaustively talkative person</t>
+          <t>adj. 反复无常的： prone to sudden illogical changes of mind, ideas, or actions</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>With a windbag like that, who needs a wind farm to meet our energy needs? 有了他这样一个多话的“吹风机”，谁还要风力发电厂来满足电力需求呢？</t>
+          <t>It’s hard to make plans with such a whimsical friend.  和这样一个反复无常的朋友做决定是很困难的。</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2112,15 +2103,19 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>windy</t>
+          <t>wholesome</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>adj. 冗长的： characterized by wearisome verbosity</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>adj. 有益身心健康的： promoting mental, moral, or social health</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>trying to eat a more wholesome diet  尽可能有更健康的饮食习惯</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2130,17 +2125,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>winsome</t>
+          <t>wicked</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>adj. 迷人的，漂亮的： generally pleasing and engaging often because of a childlike charm andinnocence</t>
+          <t>adj. 邪恶的： morally very bad</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>fascinated by her winsome smile  为她动人一笑所倾倒</t>
+          <t>a wicked urge to steal just for the sake of stealing  纯粹为了偷盗而偷盗的邪恶冲动</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2152,336 +2147,332 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>wince</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>vi. 畏缩： to shrink back involuntarily as from pain</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>winced at the horrible corpses  在令人恐惧的尸体面前畏缩</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>windbag</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>n. 健谈的人： an exhaustively talkative person</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>With a windbag like that, who needs a wind farm to meet our energy needs? 有了他这样一个多话的“吹风机”，谁还要风力发电厂来满足电力需求呢？</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>windy</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>adj. 冗长的： characterized by wearisome verbosity</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>winsome</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>adj. 迷人的，漂亮的： generally pleasing and engaging often because of a childlike charm andinnocence</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>fascinated by her winsome smile  为她动人一笑所倾倒</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
           <t>wit</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>n. 机智，智慧： the natural ability to perceive and understand
 n. 智者，有智慧的人： a person of exceptional intelligence</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>lacked the wit to judge  缺乏判断的智慧
 a man who fancied himself as a great wit  一个把自己想象成智慧的化身的男子</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>vi. 撤退： to take back or away</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>The army was forced to withdraw from the frontline.  部队被迫从前线撤回</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>wither</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>vi. 枯萎，凋谢： to become dry and sapless</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Amaranth is a legendary flower that never withers.   传说中的 Amaranth  是一种永不凋谢的花。</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>withhold</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>vt. 扣压，不给予： to refrain from granting, giving, or allowing</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>withhold sensitive information  限制敏感信息的传播</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>wizen</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>vt. （使）凋谢，（使）枯萎： to become dry, shrunken, and wrinkled often as a result of aging or offailing vitality
 adj. 凋谢的, 枯萎的： shriveled or dried up</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>wobble</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>vi. 摇晃，颤抖： to move or proceed with an irregular rocking or staggering motion or unsteadily andclumsily from side to side
 vi. 犹豫不决： to show uncertainty about the right course of action</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>The drunk stood up, wobbled for a moment, and fell forward.  醉汉站了起来，晃动了一阵，然后向前倒了下去。
 We cannot tolerate the government wobbling at this critical time.   我们不能容忍政府在这种关键时刻犹豫不决。</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>worldly</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>adj. 世间的，世俗的： of this world rather than spiritual or religion affairs
 adj. 老练的： experienced in human affairs</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>preoccupied with worldly concerns  纠缠于世俗的忧虑
 It is time you woke up and focused yourthoughts on more worldly matters.   现在你应该停止做梦然后把自己的精力集中在更现实的问题上了。
 My little sister was worldly and sophisticated, quite unlike me.  与我截然不同的是，我的妹妹在为人处世方面非常老练。</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>worship</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>n. 崇拜，敬仰： extravagant respect to an object of esteem
 v. 崇拜，膜拜： to offer honor or respect to (someone) as a divine power</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>the belief in swords and the worship of force  刀剑信仰与武力崇拜
 The ancient Greeks worshipped many different gods.   古希腊人崇拜不同的神明。</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>wrangle</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>n. 纷争，争端： an often noisy or angry expression of differing opinions
 vi. 争吵： to quarrel noisily or angrily</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>There was a bit of a wrangle over how much money to give the high school for its sports programs.   这个高中应该获得多少体育项目的拨款引起了一阵纷争。
 Local residents wrangled for hours about property taxes.  当地居民就房产税的问题争吵不休。</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>wretched</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>adj. 极差的： very poor in quality or ability
 adj. 沮丧的： deeply afflicted, dejected, or distressed in body or mind</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>the wretched conditions of the refugee camp  难民营极恶劣的条件
 She was wretched for weeks after breaking up with her boyfriend.  她与男友分手后郁闷了几个星期。</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>wry</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>adj. 扭曲的： abnormally twisted or bent to one side
 adj. 坚持错误的： stubborn in adherence to wrong opinion or principles</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>a wry smile  扭曲的笑容</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>xenophobe</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>n. 仇视（或畏惧）外国人（或外国事物）者： one unduly fearful of what is foreign and especially ofpeople of foreign originMade By Jason &amp; Franklin. This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>But from what I know, no way could this thoroughly US-educated woman (from the age of 12) be axenophobe.   但根据我的了解，这个从 12 岁起就接受彻底的美国教育的女人不可能是抵触外国事物的人。</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>yoke</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>v. 连接： to become joined or linked</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>yoked several ideas together to propose a novel theory  将几个想法结合起来提出一个全新的理论</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>yokel</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>n. 乡下人，天真纯朴的人： a naive or gullible inhabitant of a rural areaor small town</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>a lame comedy about the misadventures of yokels in the big city  描述乡下人在大都市中遭遇的不幸的劣质喜剧</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>zeal</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>n. 热心，热诚： enthusiastic devotion to a cause, ideal, or goal and tireless diligence in itsfurtherance</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>preaches with fanatical zeal  带着狂热进行传教</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2493,19 +2484,15 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>zealot</t>
+          <t>xenophobe</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>n. 狂热者： a zealous person; especially: a fanatical partisan</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>a religious zealot calling for another Crusade  呼唤下一场十字军东征的宗教狂热者</t>
-        </is>
-      </c>
+          <t>n. 仇视（或畏惧）外国人（或外国事物）者： one unduly fearful of what is foreign and especially ofpeople of foreign origin</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2515,17 +2502,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>zenith</t>
+          <t>yoke</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>n. 最高点，巅峰： culminating point</t>
+          <t>v. 连接： to become joined or linked</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>at the zenith of his power  位极人臣</t>
+          <t>yoked several ideas together to propose a novel theory  将几个想法结合起来提出一个全新的理论</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2537,17 +2524,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>zesty</t>
+          <t>yokel</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>adj. 刺激的，开胃的： appealingly piquant or lively</t>
+          <t>n. 乡下人，天真纯朴的人： a naive or gullible inhabitant of a rural areaor small town</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>a zesty sauce  味道刺激的酱汁</t>
+          <t>a lame comedy about the misadventures of yokels in the big city  描述乡下人在大都市中遭遇的不幸的劣质喜剧</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2559,1339 +2546,1387 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>zeal</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>n. 热心，热诚： enthusiastic devotion to a cause, ideal, or goal and tireless diligence in itsfurtherance</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>preaches with fanatical zeal  带着狂热进行传教</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>zealot</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>n. 狂热者： a zealous person; especially: a fanatical partisan</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>a religious zealot calling for another Crusade  呼唤下一场十字军东征的宗教狂热者</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>zenith</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>n. 最高点，巅峰： culminating point</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>at the zenith of his power  位极人臣</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>zesty</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>adj. 刺激的，开胃的： appealingly piquant or lively</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>a zesty sauce  味道刺激的酱汁</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
           <t>ravenous</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>adj. 食量大的，贪食的： having a huge appetite</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>He had moderated his ravenous appetite.   他克制了自己的食欲。
 ravenous for power  渴望权力</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>simile</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>n. 明喻： a figure of speech comparing two unlike things that is often introduced by like or as</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>Even though both similes and metaphors are forms of comparison, similes indirectly compare the two ideasand allow them to remain distinct in spite of their similarities, whereas metaphors compare two things directly.   Forinstance, a simile that compares a person with a bullet would go as follows: "Chris was a record-setting runner asfast as a speeding bullet.  " A metaphor might read something like, "When Chris ran, he was a speeding bulletracing along the track.  "尽管明喻和暗喻都是比喻的手法，明喻会间接地对两个对象进行比较，同时允许差异的存在，而暗喻则直接对两者进行比较。比如说，用明喻来把一个人比作子弹会这样说：“克里斯是一个不断打破记录的选手，他跑得就和高速子弹一样快。”而暗喻可能会说：“当克里斯奔跑的时候，他就是一颗在赛场上高速飞行的子弹。”</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>shift</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>vt. 改变…的位置： to change the place or position of
 vi. 改变，变化： to pass from one form, state, or level to another
 vt. 交换： to give up (something) and take something else in return</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>She shifted the vase closer to the wall so that it wouldn't get knocked over.  她把花瓶靠墙挪动了一点，从而防止它被碰倒。
 She watched the aurora in fascination as its colors shifted from green to blue.   她着迷地看着极光的色彩从绿变成蓝。
 My father and I shifted seats just before takeoff so that I could sit by the window.   起飞前我和我父亲交换了座位，这样我就可以靠窗坐了。</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>damn</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>vt. （在道德上）谴责： to declare to be morally wrong or evil
-adv. 非常地，极其地： to a great degree</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>a cleric who damned gambling and strong drink  一个严厉谴责赌博和酗酒的牧师
-Let's have a damn good party.   让我们尽情享乐狂欢吧。</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>nirvana</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>n. 彻底放松的状态： a state of being disregardful or unconscious of one's surroundings, concerns,or obligations
 n. 天堂，极乐世界： an often imaginary place or state of utter perfection and happiness</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">The spa experience was a week of pure nirvana.   去泡温泉水疗的经历真是彻底的放松。
 They believe in a continuous cycle of births and deaths until the soul is perfected and achieves nirvana.  </t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>nourish</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>vt. 养育，抚养： to provide with food or other substances necessary for life and growth
 vt. 培养，促进： to help the growth or development of</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>He willingly nourished a child that was not his own.   他主动地抚养了一名不是他亲生的孩子。
 a friendship nourished by trust  在信任的基础之上开出的友谊之花</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>plodder</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>n. 行走缓慢的人： someone who moves slowly or more slowly than others</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>The guide halted the tour group so that the plodders who had fallen behind could catch up.   导 游 让 队 伍停下来，以便那些落在后头的行动缓慢的人可以跟上。</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>misapprehension</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>n. 错误的理解： a failure to understand correctly
 n. 错误的判断： a wrong judgement</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>tried to eliminate all misapprehensions about the planned riverfront development  尽可能消除所有关于河流沿岸发展计划的误解
 a common misapprehension about how our language functions  有关我们的语言如何运作的常见误判</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>ferocious</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>adj. 极端的，剧烈的： marked by unrelenting intensity
 adj. 激烈的，爆发性的： marked by bursts of destructive force or intense activity
 adj. 凶猛的，残暴的： violently unfriendly or aggressive in disposition</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Ferocious heat wave kept people indoor.   剧烈的热浪使人不能出门。
 Ferocious forest fires threatened to destroy hundreds of homes in the scrubland.   肆虐的森林大火威胁着灌木丛中数百户居民的住所。
 captured and slaughtered by the ferocious tribesmen  被残暴的部落居民所抓获并惨遭屠杀</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>affix</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>vt. 粘合： to attach physically</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>affix a stamp to a letter  把邮票贴在信封上</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>asymmetry</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>n. 不对称，不平衡： lack of balance or symmetry</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>functional asymmetry of cerebral hemispheres  大脑两半球功能不对称性</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>equilibrium</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>n. 均势，平衡： a condition in which opposing forces are equal to one another</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t xml:space="preserve">We must find an equilibrium between commercial development and conservation of our natural treasures.  </t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>delegate</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>n. 代理人，代表： a person authorized to act as representative for another
 vt. 移交（权力，任务等）： to put (something) into the possession or safekeeping of another</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>The real estate developer sent a delegate to the town meeting to represent his interests.  房 地 产 开 发商派了一名能代表自己利益的代理前往镇上开会。
 the U.  N.   delegates from African countries  非 洲 国 家 的 驻 联合国代表
 The manager is reluctant to delegate authority to subordinates while abroad.   经理不愿意在国外期间将自己的权力转交给下级。</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>pious</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>adj. （信仰上）虔诚的： marked by or showing reverence for deity and devotion to divine worship
 adj. 忠诚的： firm in one's allegiance to someone or something</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>a pious woman who decided to become a nun  一个决心成为修女的虔诚女子
 a pious supporter of his school's athletic teams, during winning and losing seasons alike  学 校 体 育 队的忠诚支持者，不论他们是输或赢</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>hierarchical</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>adj. 分等级的，等级制的： classified according to various criteria into successive levels or layers</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>the traditional hierarchical system of military organization  军队中传统的等级制度</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>obsolete</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>adj. 过时的，被淘汰的： no longer in use or no longer useful</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>I was told my old printer is obsolete and I can't get replacement parts.  我被告知我的打印机已经被淘汰了，因此无法更换配件。
 an obsolete word  一个已经废弃不用的单词</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>peel</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>vt. 剥去： to strip off an outer layer of
 vi. 脱去（衣服等）： to take off one's clothes</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>She can peel apples with lightning speed.   她能以飞快的速度削苹果。</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>wiretap</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>n./vt. 偷听，窃听： to tap a telephone or telegraph wire in order to get information</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>This line is not clean asCIAmight have wiretapped it.   这根线路不安全，因为中情局可能已经在监听了。</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>surveillance</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>n. 监视，监控： close observation of a person or group, especially one under suspicion</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>government surveillance of suspected terrorists  政府对于恐怖分子嫌疑人的监控</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>perceptive</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>adj. 敏锐的： able to sense slight impressions or differences
 adj. 洞察力强的： having or showing deep understanding and intelligent application of knowledge</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Due to their ability to rotate their ears, cats are very perceptive when it comes to pinpointing the source ofa sound.   由于猫能够转动它们的耳朵，所以它们能十分敏锐地确定声源的位置。
 A perceptive teacher was able to discover what was really troubling the youth.   一个洞察力强的老师应该能察觉真正困扰青少年是什么。</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>renege</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>vt. 放弃，摒弃： to solemnly or formally reject or go back on (as something formerly adhered to)</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>She refused to renege the principles by which she had always lived her life, even if it resulted in losing herbusiness.  尽管有可能使她失去她的事业，但她仍然拒绝放弃她在生命中所坚持的那些原则。</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>rigmarole</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>n. 混乱而无意义的话： language marked by abstractions, jargon, euphemisms, and circumlocutions;confused or meaningless talk</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>The security guard gave me some kind of rigmarole about passes and authorizations.   保 安 不 知 所 云 地跟我说了一些关于通关和授权的话。</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>implicit</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>adj. 不言而喻的，心照不宣的： capable of being understood from something else thoughunexpressed
 adj. 无疑问的，无保留的： being without doubt or reserve</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>The implicit agreement among members of the outing club is that everyone pays his or her own way on alltrips.  野外俱乐部成员之间一条心照不宣的约定就是：沿途所有开销都 AA。
 Members of the expedition must have implicit trust in their leaders.   远征的队员必须百分之百地信任他们的领队。</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>marginal</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>adj. 边缘的： located at or near a border
 adj. 不重要的： not of central importance</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>Marginal locations in the open-air market are a bit cheaper.   露天市场边缘的地段通常都要便宜些。
 regards violence as a marginal rather than a central problem  并不把暴力问题当作重要的核心问题来看</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>pivotal</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>adj. 最关键的，最为重要的： of the greatest possible importance</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>The report was missing a pivotal piece of information.   报告遗漏了最为重要的信息。</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>unavailing</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>adj. 徒劳的，无果的： producing no results</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>an unavailing effort to avert a war  试图避免战争的徒劳尝试</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>cachet</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>n. 威望，声望： a mark or quality, as of distinction, individuality, or authenticity</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Federal courts have a certain cachet which state courts lack.  联邦法院拥有州立法院所不具备的威信。</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>graft</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>vt. 移植，移接： to implant (living tissue) surgically or as if surgically</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>The top layer of skin has to be grafted onto the burns.   顶层的皮肤需要被移植到烧伤的伤口上。
 graftold traditions onto the new ones  把老传统移植到新的习俗之上</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>feisty</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>adj. 好斗的，好争论的： having or showing a lively aggressiveness</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>At 66, she was as feisty as ever.   尽管已经 66 岁高龄，她还是一样好斗。</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>cascade</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>n. （尤指小的）瀑布： a steep usually small fall of water</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>The river forms a series of cascades as it drops a total of 200 feet in elevation.  这 条 河 前后 海 拔差 达200 余英尺，故而形成了一系列的小瀑布。</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>domineer</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>vt. 专制统治： to exercise arbitrary or overbearing control</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Her husband and mother-in-law tyrannize her.   她生活在她丈夫和婆婆的高压统治下。</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>vile</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>adj. 丑陋的： unpleasant to look at
 adj. （道德上）可鄙的，卑鄙的： morally despicable or abhorrent</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>a truly vile combination of colors  着实丑陋的混搭色调
 Nothing is so vile as intellectual dishonesty.   没什么比智力上的欺骗更为可鄙的了。</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>poach</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>vt. 水煮： to cook in a liquid heated to the point that it gives off steam</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>He poached an egg for breakfast.  他煮了一个荷包蛋做早饭。</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>palpitation</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>n. （有节奏的）舒张收缩： a rhythmic expanding and contracting</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>a palpitation of the blood vessels  血管有节奏的舒张收缩</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>palaver</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>n. 对话，交流： an exchange of views for the purpose of exploring a subject or deciding an issue
 vi. 闲聊： to talk profusely or idly</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>seemingly endless palaver between the negotiating parties  谈判双方之间看似没有尽头的对话
 Mothers were palavering and drinking coffee while watching their children play.  母 亲 们 一边 看 着她 们的孩子玩耍，一边喝着咖啡闲谈。</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>favoritism</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>n. 偏爱，偏袒： the showing of special favor</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>Favoritism blinded the administrator to the benefits of the proposed system for distributing work.   偏 袒 使得经理无法意识到这一待讨论的分配系统所带来的收益。</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>overwrought</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>adj. 十分激动的，非常不安的： being in a state of increased activity or agitation
 adj. （装饰）过分华丽的： elaborately and often excessively decorated</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>She became overwrought when she heard that her child was missing.  当她得知自己孩子失踪的消息后变得极其激动和不安。
 The author's prose is overwrought with purple passages and florid metaphors.   这个作者的散文里充满了词藻华丽的段落和比喻，显得有些过分。</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>sequel</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>n. 结果： a result or consequence</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Higher prices are a logical sequel to higher costs for manufacturers.   从逻辑上来说，更高的价格是更高的生产成本的结果。</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>fad</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>n. （短暂的）流行，时尚： a practice or interest that is very popular for a short time</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>Once the fad for that kind of music had passed, nobody would have been caught dead listening to it.   一旦那种流派的音乐流行风刮过之后，就没有人会来听它出丑了。</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>arid</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>adj. 干燥的： marked by little or no precipitation or humidity
 adj. 无趣的，无聊的： causing weariness, restlessness, or lack of interest</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>arid wastelands unfit for human habitation  不适合人类居住的干燥荒原
 arid wastelands unfit for human habitation  不适合人类居住的干燥荒原</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>avowal</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>n. 承认： a solemn and often public declaration of the truth or existence of something</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>With jingoism rampant, the peace candidate felt compelled to make an avowal of his patriotism.   在 沙 文主义肆虐的情况下，爱好和平的候选人被迫承认自己是个爱国主义者。</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>backfire</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>vi. 产生相反的结果，事与愿违： to have the reverse of the desired or expected effect</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>My plan to throw her a surprise party backfired when she ended up sobbing that everyone had forgottenher birthday.   我本想给她的生日开一个聚会作为惊喜，但没想到事与愿违：她啜泣着说所有人都忘记了她的生日。</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>baffle</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>vt. 挫败，阻挠： to frustrate or check (a person) as by confusing or perplexing
-vt. 使疑惑： to throw into a state of mental uncertainty本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>baffled by the language barrier  受到语言障碍的阻挠
-I was baffled by many of the scientific terms used in the article.   这篇文章中各种学术词汇让我很困惑。</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+vt. 使疑惑： to throw into a state of mental uncertainty</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>baffled by the language barrier  受到语言障碍的阻挠</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>careen</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>vi. 蹒跚而行，不稳地行走： to lurch or swerve while in motion
 vi. 狂奔，快速运动： to rush headlong or carelessly</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>He careened unsteadily to the couch after hitting his head.   在撞到头以后，他摇摇摆摆地走向沙发。
 Sounding its siren, an ambulance careened through the intersection.   救护车响着警笛飞驰通过十字路口。</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>constrict</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>vt. 压缩，压紧： to make smaller or narrower by or as if by binding or squeezing</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>lives constricted by poverty  因为贫穷而拮据的生活
 Severe migraine can be treated with a drug whichconstricts the blood vessels.  某些能使血管收缩的药物可用来治疗严重的偏头痛。</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>dampen</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>vt. （特指稍稍地）弄湿： to make or become slightly or moderately wet
 vt. 抑制，压抑（感情，精力等），泼冷水： to check or diminish the feeling, activity or vigor of</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>dampen a paper towel with water and use it to clean up the mess  把纸巾弄湿用来清扫
 Nothing could dampen their enthusiasm.   没有什么能扼杀他们的激情。
 The oppressive heat dampenedour spirits.  让人难以忍受的酷暑让我们精神不振。</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>debonair</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>adj. 无忧无虑的，不在乎的： having or showing freedom from worries or troubles
 adj. 风度翩翩的： having or showing very polished and worldly manners</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>His debonair dismissal of my inquiry concerning his financial situation led me to believe that nothing waswrong.   对于我有关他个人理财的问题，他表现得毫不在乎，这使我相信没有问题。
 The debonair gentleman charmed all of the ladies in the room.   风度翩翩的绅士吸引了在场的所有女士。</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>fabulous</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>adj. 传说中的： based on, described in, or being a fable</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>The city of Phoenix is named after a fabulous bird that every 500 years destroys itself with fire, only to riseagain from its own ashes.   凤凰城的名字来源于传说中的一种鸟，它每隔 500 年会在火焰中毁灭，然后再从灰烬中重生。</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>hobble</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>vi. 跛行，蹒跚而行： to walk or move along haltingly or with difficulty
 vt. 阻碍，妨碍： to hamper the action or progress of</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>She picked up her cane and hobbled across the room.   她拿起了一根手杖，一拐一拐地穿过了房间。
 We were hobbled by the snowstorm from getting out to do some Christmas shopping.   暴 雪 阻 碍 了 我 们圣诞购物的计划。</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>plush</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>adj. （味道等）浓郁的： having an abundance of some characteristic quality (as flavor)
 adj. 奢华的，豪华的： notably luxurious</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>a plush, ripe wine  味道浓郁的陈年老窖
 a plush castle filled with priceless art and antiques  一座充满了无价艺术品和古董的奢华城堡</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>rhetorical</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>adj. 语言上的，文字上的： of or relating to words or language
+adj. 言辞华丽（却往往无内涵的）： full of fine words and fancy expressionsbut mostly meaninglesswords and phrases</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>The next war that those two nations fight won't be rhetorical - it will be with bombs and bullets.   两 国 之间的下一场战争可不会是斗嘴皮了——他们会来真格的。
+You can skip over the rhetorical passages and still get the gist of the essay.   你可以跳过那些词藻华丽的段落，直接获取文本的主旨。
+The new governor delivered a long rhetorical speech about our state's brightfuture but laid out no specific programs for ensuring it.   新的执政官发表了词藻华丽的演说，畅谈国家的美好未来，但却没有提出实现这一目标的具体措施。</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>trifle</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>n. 不重要的事： something of little importance or value
 vi. 不正经地对待，玩弄： to behave amorously without serious intent</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>Let us not speak of trifles when our nation may be going to war.   战事在即，我们还是先放下这些琐事吧。
 Do not trifle with me unless you mean to ask me to marry you.   如果你不是真心想和我结婚，就请不要来玩弄我的感情。</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>weather</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>vt. 安全渡过（危机等），经受住： to come through (something) safely</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>We haveve weathered worse crises, and so we'll survive this one.  更为严重的危机我们都闯过了，这个也不会有问题的。
 They weathered a terrible storm while at sea.   他们在海上平安渡过了一场巨大的风暴。</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>wily</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>adj. 狡诈的，狡猾的： clever at attaining one's ends by indirect and often deceptive means</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>He is an experienced and wily old statesman.   他是一个经验丰富而狡诈的老销售员。
 His wily plan onlyrebounded on him.  聪明反被聪明误。</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>arable</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>adj. 适合耕种的： fit for or used for the growing of crops</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t xml:space="preserve">explore the west for arable land  向西探索适合耕种的土地Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  </t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>explore the west for arable land  向西探索适合耕种的土地</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>convene</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>vt. 召开，召集： to bring together in assembly by or as if by command
 vi. 聚集，集合： to come together in a body</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>convened the members of the council for an emergency session  召集委员会的成员进入紧急议程
 The students convened in the auditorium to hear the principal’saddress.   学生们在大礼堂集合，聆听校长的致辞。</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>decadent</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>adj. 堕落的，腐败的： having or showing lowered moral character or standards
 n. 放纵的人： a person whose life is devoted to luxury and sensual pleasures
 n. 道德上堕落的人： a person in a condition or process of mental or moral decay</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>Opponents of gambling casinos claim that gambling is a decadent form of entertainment.   赌 场 的 反 对者们宣称赌博是一种堕落腐化的娱乐形式。
 a decadent who squandered her once considerable family fortune  一个挥霍了大量的家族财富的人
 avant-garde artists who were scorned by the bourgeoisie as talentless decadents  被中产阶级鄙视为没有才华的堕落者的前卫艺术家</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>demotion</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>n. 降级，降职： the act or an instance of bringing to a lower grade or rank</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Anyone who objects will get a demotion.   任何胆敢反对的人都会被降职。
-received a demotion fromsergeant to corporal  从中士降为下士</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>glower</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>vi. 怒目而视： to look or stare with sullen annoyance or anger</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Baseball fans glowering at their TVs as they watched their favorite team lose.   看着他们支持的球队输球，棒球迷们恶狠狠地盯着电视屏幕。
-He just glowered without speaking.   他一言不发地怒视着我。</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_10.xlsx
+++ b/result/生词本导入模版_10.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,46 +422,46 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>单词</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>含义（可不填）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>例句（可不填）</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>veracious</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>adj. 诚实的，说实话的： being in the habit of telling the truth
 adj. 精确的，准确的： precise, accurate</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>a veracious witness  诚实的证人
 He has a reputation for being veracious, so people generally takehis word for things.  他诚实的名声让其他人通常都相信他说的话
 a novel that presents a fairly veracious and unvarnished picture of the lives of affluent suburbanites  一部准确而不加修饰地描述郊区富人生活的小说</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>verbatim</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adv. 逐字地，一字不差地： in the exact words</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>You can't just copy the encyclopedia article verbatim for your report - that's plagiarism.   你 不 能 一 字 不 差地抄百科全书上的内容——这是剽窃。</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -483,17 +471,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>verbatim</t>
+          <t>verbose</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>adv. 逐字地，一字不差地： in the exact words</t>
+          <t>adj. 冗长的，啰嗦的： containing more words than necessary</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>You can't just copy the encyclopedia article verbatim for your report - that's plagiarism.   你 不 能 一 字 不 差地抄百科全书上的内容——这是剽窃。</t>
+          <t>a verbose orator  啰嗦的演讲者
+She has a verbose writing style.   她的文风很啰嗦。</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -505,18 +494,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>verbose</t>
+          <t>verdant</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>adj. 冗长的，啰嗦的： containing more words than necessary</t>
+          <t>adj. （因长满植物而）翠绿的，郁郁葱葱的： green with vegetation; covered with green growth</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>a verbose orator  啰嗦的演讲者
-She has a verbose writing style.   她的文风很啰嗦。</t>
+          <t>verdant fields  翠绿的田野</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -528,17 +516,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>verdant</t>
+          <t>verify</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>adj. （因长满植物而）翠绿的，郁郁葱葱的： green with vegetation; covered with green growth</t>
+          <t>vt. 校验，证实： to determine or test the truth or accuracy of, as by comparison, investigation, orreference</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>verdant fields  翠绿的田野</t>
+          <t>We need to verify your passport.   我们需要校验阁下的护照。</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -550,17 +538,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>verify</t>
+          <t>verisimilar</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>vt. 校验，证实： to determine or test the truth or accuracy of, as by comparison, investigation, orreference</t>
+          <t>adj. 似乎真实的： appearing to be true or real</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>We need to verify your passport.   我们需要校验阁下的护照。</t>
+          <t>a verisimilar tale  一个似乎为真的传奇</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -572,17 +560,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>verisimilar</t>
+          <t>veritable</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>adj. 似乎真实的： appearing to be true or real</t>
+          <t>adj. 真正的，确实的： being in fact the thing named and not false, unreal, or imaginary</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>a verisimilar tale  一个似乎为真的传奇</t>
+          <t>a veritable manuscript  一份原稿</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -594,17 +582,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>veritable</t>
+          <t>vernacular</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>adj. 真正的，确实的： being in fact the thing named and not false, unreal, or imaginary</t>
+          <t>n. 方言： a nonstandard language or dialect of a place, region, or country
+adj. 非正式的，口头的： used in or suitable for speech and not formal writing</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>a veritable manuscript  一份原稿</t>
+          <t>phrases that occur in the common vernacular  常见方言中的词组
+writes essays in a very easy-to-read, vernacular style  用一种易懂的口头化风格写作</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -616,19 +606,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vernacular</t>
+          <t>versatile</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>n. 方言： a nonstandard language or dialect of a place, region, or country
-adj. 非正式的，口头的： used in or suitable for speech and not formal writing</t>
+          <t>adj. 多才多艺的，全能的： able to do many different kinds of things
+adj. 易改变的： changing or fluctuating readily</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>phrases that occur in the common vernacular  常见方言中的词组
-writes essays in a very easy-to-read, vernacular style  用一种易懂的口头化风格写作</t>
+          <t>We have found a versatile baseball player who can play any position.  我们发现了一个能打任何位置的全能型球员。
+a versatile disposition  多变的性格</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -640,19 +630,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>versatile</t>
+          <t>verse</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>adj. 多才多艺的，全能的： able to do many different kinds of things
-adj. 易改变的： changing or fluctuating readily</t>
+          <t>vt. 使精通，使熟悉： to familiarize by close association, study, or experience</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>We have found a versatile baseball player who can play any position.  我们发现了一个能打任何位置的全能型球员。
-a versatile disposition  多变的性格</t>
+          <t xml:space="preserve">well versed in the theater  精通剧院
+While in prison, he versed himself in the rights of the incarcerated.  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -664,18 +653,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>verse</t>
+          <t>vertigo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>vt. 使精通，使熟悉： to familiarize by close association, study, or experience</t>
+          <t>n. 眩晕： a dizzy confused state of mind</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">well versed in the theater  精通剧院
-While in prison, he versed himself in the rights of the incarcerated.  </t>
+          <t>He had a dreadful attack of vertigo at the top of the tower.   他站在塔顶，感到一阵令人窒息的眩晕。</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -687,17 +675,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>vertigo</t>
+          <t>verve</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>n. 眩晕： a dizzy confused state of mind</t>
+          <t>n. 活力，热情： vitality, liveliness</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>He had a dreadful attack of vertigo at the top of the tower.   他站在塔顶，感到一阵令人窒息的眩晕。</t>
+          <t>The instrumentalists played with skill and verve.  器乐表演者们有着高超的技巧与饱满的热情</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -709,17 +697,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>verve</t>
+          <t>vessel</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>n. 活力，热情： vitality, liveliness</t>
+          <t>n.管： a tube or canal (as an artery) in which a body fluid is contained and conveyed or circulated
+n. 船，舰艇： a watercraft bigger than a rowboat</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>The instrumentalists played with skill and verve.  器乐表演者们有着高超的技巧与饱满的热情</t>
+          <t>blood vessel  血管
+the largest military vessel afloat  最大的军用舰艇</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -731,19 +721,18 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>vessel</t>
+          <t>vestige</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>n.管： a tube or canal (as an artery) in which a body fluid is contained and conveyed or circulated
-n. 船，舰艇： a watercraft bigger than a rowboat</t>
+          <t>n. 微小的遗迹，小痕迹： the smallest quantity or trace</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>blood vessel  血管
-the largest military vessel afloat  最大的军用舰艇</t>
+          <t>A few strange words carved on a stone were the only vestige of the lost civilization.  石 碑 上 刻 着 的 几个奇怪的字符是这个失落文明的唯一的遗迹。
+the fossilized vestige of a dinosaur that traversed that muddylandscape millions of years ago  千万年横跨那块泥泞土壤的恐龙的化石碎片</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -755,20 +744,15 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>vestige</t>
+          <t>vestigial</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>n. 微小的遗迹，小痕迹： the smallest quantity or trace</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A few strange words carved on a stone were the only vestige of the lost civilization.  石 碑 上 刻 着 的 几个奇怪的字符是这个失落文明的唯一的遗迹。
-the fossilized vestige of a dinosaur that traversed that muddylandscape millions of years ago  千万年横跨那块泥泞土壤的恐龙的化石碎片</t>
-        </is>
-      </c>
+          <t>adj. 退化的，发育不全的： (of certain organs or parts of organisms) having attained a simple structure</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -778,15 +762,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>vestigial</t>
+          <t>veteran</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>adj. 退化的，发育不全的： (of certain organs or parts of organisms) having attained a simple structure</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>n. 老兵，有丰富经验的人： one having knowledge or ability gained through long experience
+adj. 经验丰富的，资深的： having or showing exceptional knowledge, experience, or skill in a fieldof endeavor</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>As a veteran of overseas travel, she offered us solid advice about planning our trip.  作 为 一 名 资 深 的旅行家，她给了我们提供了许多关于旅行规划的中肯建议。
+She is a veteran teacher who can mentor new teachers.  她的教师资历都老到可以教新教师了。</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -796,19 +786,18 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>veteran</t>
+          <t>veto</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>n. 老兵，有丰富经验的人： one having knowledge or ability gained through long experience
-adj. 经验丰富的，资深的： having or showing exceptional knowledge, experience, or skill in a fieldof endeavor</t>
+          <t>n./vt. 否决，禁止： to forbid or prohibit authoritatively</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>As a veteran of overseas travel, she offered us solid advice about planning our trip.  作 为 一 名 资 深 的旅行家，她给了我们提供了许多关于旅行规划的中肯建议。
-She is a veteran teacher who can mentor new teachers.  她的教师资历都老到可以教新教师了。</t>
+          <t>The President vetoed the bill.  总统否决了提案。
+We wanted to do a cross-country trip, but our parentsvetoed it.  我们想来一次跨国旅行，但是父母不肯批准。</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -820,18 +809,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>veto</t>
+          <t>vex</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>n./vt. 否决，禁止： to forbid or prohibit authoritatively</t>
+          <t>vt. 使烦恼，使恼怒： to bring trouble, distress, or agitation to</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>The President vetoed the bill.  总统否决了提案。
-We wanted to do a cross-country trip, but our parentsvetoed it.  我们想来一次跨国旅行，但是父母不肯批准。</t>
+          <t>vexed by her son's failure to clean his room  因为她儿子不清理房间而恼怒</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -843,17 +831,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vex</t>
+          <t>viable</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>vt. 使烦恼，使恼怒： to bring trouble, distress, or agitation to</t>
+          <t>adj. 可行的： capable of being done or carried out</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>vexed by her son's failure to clean his room  因为她儿子不清理房间而恼怒</t>
+          <t>a viable solution to the problem  解决问题的一个可行方案</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -865,17 +853,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>viable</t>
+          <t>vicarious</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>adj. 可行的： capable of being done or carried out</t>
+          <t>adj. 代理的，取代的： performed or suffered by one person as a substitute for another or to thebenefit or advantage of another</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>a viable solution to the problem  解决问题的一个可行方案</t>
+          <t>use Internet as a vicarious form of social life  把互联网当作一种虚拟的社交生活</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -887,17 +875,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vicarious</t>
+          <t>vicious</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>adj. 代理的，取代的： performed or suffered by one person as a substitute for another or to thebenefit or advantage of another</t>
+          <t>adj. 凶恶的，恶毒的： having or showing the desire to inflict severe pain and suffering on others
+adj. 猛烈的： marked by violence or ferocity</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>use Internet as a vicarious form of social life  把互联网当作一种虚拟的社交生活</t>
+          <t>vicious slander  恶意的诽谤
+a vicious storm ripped through the region  在境内肆虐的强烈风暴</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -909,19 +899,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vicious</t>
+          <t>vicissitude</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>adj. 凶恶的，恶毒的： having or showing the desire to inflict severe pain and suffering on others
-adj. 猛烈的： marked by violence or ferocity</t>
+          <t>n. 自然变化： natural change or mutation visible in nature or in human affairs</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>vicious slander  恶意的诽谤
-a vicious storm ripped through the region  在境内肆虐的强烈风暴</t>
+          <t>vicissitude of daily life  日常生活的跌宕起伏</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -933,17 +921,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vicissitude</t>
+          <t>victimize</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>n. 自然变化： natural change or mutation visible in nature or in human affairs</t>
+          <t>vt. 使受骗： to subject to deception or fraud</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>vicissitude of daily life  日常生活的跌宕起伏</t>
+          <t>victimized by a confidence man with a slick story  被一个骗子用圆滑的故事欺骗</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -955,17 +943,18 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>victimize</t>
+          <t>vigilant</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>vt. 使受骗： to subject to deception or fraud</t>
+          <t>adj. 警醒的，警惕的： alertly watchful especially to avoid danger</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>victimized by a confidence man with a slick story  被一个骗子用圆滑的故事欺骗</t>
+          <t>Police warned the public to be vigilant and report anything suspicious.  警方要求公众保持警惕，并上报任何有嫌疑的人或事。
+When traveling through the city, tourists should be extra vigilant.   在这个城市旅行的游客应该保持格外的警惕。</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -977,18 +966,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vigilant</t>
+          <t>vignette</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>adj. 警醒的，警惕的： alertly watchful especially to avoid danger</t>
+          <t>n. 简介短文： a vivid representation in words of someone or something</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Police warned the public to be vigilant and report anything suspicious.  警方要求公众保持警惕，并上报任何有嫌疑的人或事。
-When traveling through the city, tourists should be extra vigilant.   在这个城市旅行的游客应该保持格外的警惕。</t>
+          <t>The general's memoirs are filled with revealing vignettes of some of the war’s most compellingpersonalities.   将军的回忆录里充满了短小的文章，它们揭露了战争中最引人注意的人物。</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1000,17 +988,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vignette</t>
+          <t>vigorous</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>n. 简介短文： a vivid representation in words of someone or something</t>
+          <t>adj. 精力旺盛的： having active strength of body or mind
+adj. 强健的： able to withstand hardship, strain, or exposure</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>The general's memoirs are filled with revealing vignettes of some of the war’s most compellingpersonalities.   将军的回忆录里充满了短小的文章，它们揭露了战争中最引人注意的人物。</t>
+          <t>He remains vigorous despite being over 80 years old.   尽管他已 80 高龄，但仍活力不减
+vigorous and sturdy little sheep bred to live in mountainous regions  在山区喂养的健壮的小羊</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1022,19 +1012,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vigorous</t>
+          <t>vilify</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>adj. 精力旺盛的： having active strength of body or mind
-adj. 强健的： able to withstand hardship, strain, or exposure</t>
+          <t>vt. 诽谤，辱骂： to utter slanderous and abusive statements against</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>He remains vigorous despite being over 80 years old.   尽管他已 80 高龄，但仍活力不减
-vigorous and sturdy little sheep bred to live in mountainous regions  在山区喂养的健壮的小羊</t>
+          <t>be vilified by the press because of her radical views  因为她激进的观点而被媒体抨击</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1046,17 +1034,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vilify</t>
+          <t>vim</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>vt. 诽谤，辱骂： to utter slanderous and abusive statements against</t>
+          <t>n. 活力，精力： robust energy and enthusiasm</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>be vilified by the press because of her radical views  因为她激进的观点而被媒体抨击</t>
+          <t>A little rest should give me back some of my vim.   稍事休息一会我应该就能回复些许精力</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1068,17 +1056,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vim</t>
+          <t>vindicate</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>n. 活力，精力： robust energy and enthusiasm</t>
+          <t>vt. 为…平反，为…辩护，使无罪： to free from allegation or blame
+vt. 证明，证实：to give evidence or testimony to the truth or factualness of</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A little rest should give me back some of my vim.   稍事休息一会我应该就能回复些许精力</t>
+          <t>The evidence would completely vindicate him.   这个证据将彻底证明他的清白。
+Recent discoveries have generally vindicated the physicist's theories.  近期的发现整体上证明了物理学家的理论。</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1090,19 +1080,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vindicate</t>
+          <t>vindictive</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>vt. 为…平反，为…辩护，使无罪： to free from allegation or blame
-vt. 证明，证实：to give evidence or testimony to the truth or factualness of</t>
+          <t>adj. 复仇的（有寻仇倾向的）： disposed to seek revenge</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The evidence would completely vindicate him.   这个证据将彻底证明他的清白。
-Recent discoveries have generally vindicated the physicist's theories.  近期的发现整体上证明了物理学家的理论。</t>
+          <t>vindictive hatred for his brother  对他兄弟的仇恨</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1114,17 +1102,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>vindictive</t>
+          <t>virtuoso</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>adj. 复仇的（有寻仇倾向的）： disposed to seek revenge</t>
+          <t>n. 艺术鉴赏家，专家： a person with masterly skill or technique in the arts
+adj. 经验丰富的，技艺精湛的： having or showing exceptional knowledge, experience, or skill in afield of endeavor</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>vindictive hatred for his brother  对他兄弟的仇恨</t>
+          <t>a violin virtuoso  资深小提琴艺术家
+The American virtuoso cellist Lynn Harrell joins the orchestra as soloist in Shostakovich’s technicallychallenging Cello Concerto No 2.  来自美国的技艺精湛的大提琴家林恩·哈雷尔作为独奏者加入了乐队，共同演绎肖斯塔科维奇充满挑战的《第二大提琴协奏曲》。</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1136,19 +1126,18 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>virtuoso</t>
+          <t>virtuous</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>n. 艺术鉴赏家，专家： a person with masterly skill or technique in the arts
-adj. 经验丰富的，技艺精湛的： having or showing exceptional knowledge, experience, or skill in afield of endeavor</t>
+          <t>adj. 品德高尚的，正直的： having or showing virtue, especially moral excellence</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>a violin virtuoso  资深小提琴艺术家
-The American virtuoso cellist Lynn Harrell joins the orchestra as soloist in Shostakovich’s technicallychallenging Cello Concerto No 2.  来自美国的技艺精湛的大提琴家林恩·哈雷尔作为独奏者加入了乐队，共同演绎肖斯塔科维奇充满挑战的《第二大提琴协奏曲》。</t>
+          <t>Virtuous behavior is its own reward.   美德本身就是一种回报。
+She felt that she had made a virtuousdecision by donating the money to charity.  她觉得把钱捐赠给慈善基金是一个高尚的决定。</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1160,18 +1149,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>virtuous</t>
+          <t>virulent</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>adj. 品德高尚的，正直的： having or showing virtue, especially moral excellence</t>
+          <t>adj. 有毒的： extremely poisonous or venomous
+adj. 凶残的： marked by a rapid, severe, and destructive course</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Virtuous behavior is its own reward.   美德本身就是一种回报。
-She felt that she had made a virtuousdecision by donating the money to charity.  她觉得把钱捐赠给慈善基金是一个高尚的决定。</t>
+          <t>virulent bacteria  有毒的细菌
+a virulent look on her face  面露凶色</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1183,19 +1173,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>virulent</t>
+          <t>viscid</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>adj. 有毒的： extremely poisonous or venomous
-adj. 凶残的： marked by a rapid, severe, and destructive course</t>
+          <t>adj. 有粘性的： having a glutinous consistency</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>virulent bacteria  有毒的细菌
-a virulent look on her face  面露凶色</t>
+          <t>viscid tree resin  粘性的树脂</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1207,17 +1195,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>viscid</t>
+          <t>viscous</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>adj. 有粘性的： having a glutinous consistency</t>
+          <t>adj. 粘稠的，粘的： viscid; sticky</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>viscid tree resin  粘性的树脂</t>
+          <t>viscous syrup that takes forever to pour from a narrow-neck bottle  不知要花多久才能从窄口瓶中倒出来的粘稠糖浆</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1229,45 +1217,45 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>viscous</t>
+          <t>visionary</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>adj. 粘稠的，粘的： viscid; sticky</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>viscous syrup that takes forever to pour from a narrow-neck bottle  不知要花多久才能从窄口瓶中倒出来的粘稠糖浆</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>visionary</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
         <is>
           <t>adj. 空想的，不切实际的： having or marked by a tendency to be guided more by ideals than by reality
 adj. 幻觉的： not real and existing only in the imagination
 adj. 有远见的： having or marked by foresight and imagination</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>a visionary plan for a manned flight to Mars  一个构想中的载人火星计划
 claimed to have had visionary experiences of hell  宣称有过到达地狱的幻觉
 a visionary and legendary leader  一个有远见的传奇性领袖</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>vitality</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>n. 活力，生命力： physical or mental vigor especially when highly developed</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Her vitality seemed to spread to everyone around her.   她的活力似乎能影响身边的每一个人</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1277,17 +1265,19 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>vitality</t>
+          <t>vitiate</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>n. 活力，生命力： physical or mental vigor especially when highly developed</t>
+          <t>v. 削弱，损害： to reduce the value or impair the quality of
+v. （在道德、审美上）降低，堕落： to debase in moral or aesthetic status</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Her vitality seemed to spread to everyone around her.   她的活力似乎能影响身边的每一个人</t>
+          <t>Too many grammatical errors can vitiate the soundness of your writing, so double-check is recommendedbefore submission.  太多的语法错误会削弱你论证的力度，所以强烈建议交稿前检查几遍。
+Penchant for coarse language vitiates what is otherwise a refined literary style.  使 用 粗 俗语 言 的倾 向使得本该是一个高雅的文体变得不堪入目。</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1299,19 +1289,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>vitiate</t>
+          <t>vitriolic</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>v. 削弱，损害： to reduce the value or impair the quality of
-v. （在道德、审美上）降低，堕落： to debase in moral or aesthetic status</t>
+          <t>adj. （言辞）刻薄的： bitterly scathing</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Too many grammatical errors can vitiate the soundness of your writing, so double-check is recommendedbefore submission.  太多的语法错误会削弱你论证的力度，所以强烈建议交稿前检查几遍。
-Penchant for coarse language vitiates what is otherwise a refined literary style.  使 用 粗 俗语 言 的倾 向使得本该是一个高雅的文体变得不堪入目。</t>
+          <t>vitriolic criticism  刻薄的批评</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1323,17 +1311,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>vitriolic</t>
+          <t>vituperate</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>adj. （言辞）刻薄的： bitterly scathing</t>
+          <t>vt. 谩骂，责骂： to abuse or censure severely or abusively</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>vitriolic criticism  刻薄的批评</t>
+          <t>was vituperated for betraying his friends  因为背叛他的朋友而被责骂</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1345,17 +1333,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>vituperate</t>
+          <t>vivacious</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>vt. 谩骂，责骂： to abuse or censure severely or abusively</t>
+          <t>adj. 活泼的，快活的： lively in temper, conduct, or spirit</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>was vituperated for betraying his friends  因为背叛他的朋友而被责骂</t>
+          <t>a vivacious girl who became a successful sales rep  一个成为了成功销售代表的活泼女孩</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1367,17 +1355,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>vivacious</t>
+          <t>vociferous</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>adj. 活泼的，快活的： lively in temper, conduct, or spirit</t>
+          <t>adj. 喧哗的，大叫大嚷的： making, given to, or marked by noisy and vehement outcry</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>a vivacious girl who became a successful sales rep  一个成为了成功销售代表的活泼女孩</t>
+          <t>Vociferous opponents of the bill protested angrily outside the Congress.   议案的反对者在国会外愤怒地举行了声势浩大的抗议活动</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1389,17 +1377,18 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>vociferous</t>
+          <t>volatile</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>adj. 喧哗的，大叫大嚷的： making, given to, or marked by noisy and vehement outcry</t>
+          <t>adj. 多变的： characterized by or subject to rapid or unexpected change</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Vociferous opponents of the bill protested angrily outside the Congress.   议案的反对者在国会外愤怒地举行了声势浩大的抗议活动</t>
+          <t>a boss of volatile moods  一个性情多变的老板
+The stock market can be very volatile.   股 市 瞬 息 万变。</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1411,18 +1400,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>volatile</t>
+          <t>volition</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>adj. 多变的： characterized by or subject to rapid or unexpected change</t>
+          <t>n. 意志，自愿选择的行为： the act or power of making one's own choices or decisions</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>a boss of volatile moods  一个性情多变的老板
-The stock market can be very volatile.   股 市 瞬 息 万变。</t>
+          <t>beyond his volition or control  超出了他的意志和控制范围</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1434,17 +1422,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>volition</t>
+          <t>voluble</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>n. 意志，自愿选择的行为： the act or power of making one's own choices or decisions</t>
+          <t>adj. 健谈的，话多的： characterized by ready or rapid speech</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>beyond his volition or control  超出了他的意志和控制范围</t>
+          <t>The voluble gadfly ruined the party.   聚会被那个话又多又让人讨厌的人破坏了。</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1456,17 +1444,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>voluble</t>
+          <t>voluminous</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>adj. 健谈的，话多的： characterized by ready or rapid speech</t>
+          <t>adj. 卷数多的，大量的，庞大的： having great volume, fullness, size, or number</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>The voluble gadfly ruined the party.   聚会被那个话又多又让人讨厌的人破坏了。</t>
+          <t>trying to keep a track of voluminous academic database  尝试追踪数目庞大的学术数据库</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1478,17 +1466,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>voluminous</t>
+          <t>voluptuous</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>adj. 卷数多的，大量的，庞大的： having great volume, fullness, size, or number</t>
+          <t>adj. 奢侈逸乐的，沉溺酒色的： given to or spent in enjoyments of luxury, pleasure, or sensualgratifications</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>trying to keep a track of voluminous academic database  尝试追踪数目庞大的学术数据库</t>
+          <t>They spent a long and voluptuous holiday in Venice.  他们在威尼斯度过了一个漫长而奢华的假期。</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1500,17 +1488,19 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>voluptuous</t>
+          <t>voracious</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>adj. 奢侈逸乐的，沉溺酒色的： given to or spent in enjoyments of luxury, pleasure, or sensualgratifications</t>
+          <t>adj. 有很大食量的，贪吃的： having a huge appetite
+adj. 贪婪的，如饥似渴的： having or marked by an insatiable appetite for an activity or pursuit</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>They spent a long and voluptuous holiday in Venice.  他们在威尼斯度过了一个漫长而奢华的假期。</t>
+          <t>He has a voracious appetite.  他的食量惊人。
+a voracious reader who locked himself up in the study  一个把自己锁在书房的贪婪的读者</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1522,19 +1512,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>voracious</t>
+          <t>votary</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>adj. 有很大食量的，贪吃的： having a huge appetite
-adj. 贪婪的，如饥似渴的： having or marked by an insatiable appetite for an activity or pursuit</t>
+          <t>n. 崇拜者，信徒： a person who is fervently devoted, as to a leader or ideal; a faithful follower</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>He has a voracious appetite.  他的食量惊人。
-a voracious reader who locked himself up in the study  一个把自己锁在书房的贪婪的读者</t>
+          <t>votaries of the religious leader  宗教领袖的追随者们</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1546,17 +1534,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>votary</t>
+          <t>vouch</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>n. 崇拜者，信徒： a person who is fervently devoted, as to a leader or ideal; a faithful follower</t>
+          <t>vi. 担保，声称为真： to declare (something) to be true or genuine; to give a guarantee</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>votaries of the religious leader  宗教领袖的追随者们</t>
+          <t>willing to vouch for her integrity  愿意担保她的人格</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1568,17 +1556,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>vouch</t>
+          <t>vulgar</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>vi. 担保，声称为真： to declare (something) to be true or genuine; to give a guarantee</t>
+          <t>adj. 粗俗的，无教养的： morally crude, undeveloped, or unregenerate
+adj. 口头的，非正式的： used in or suitable for speech and not formal writing</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>willing to vouch for her integrity  愿意担保她的人格</t>
+          <t xml:space="preserve">He is a vulgar man but his music is quite divine.  虽然他是一个粗俗的人，但他的音乐却十分神圣。
+Latin was once the language of scholars, and English the vulgar language used by the common people.  </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1590,19 +1580,18 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>vulgar</t>
+          <t>vulnerable</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>adj. 粗俗的，无教养的： morally crude, undeveloped, or unregenerate
-adj. 口头的，非正式的： used in or suitable for speech and not formal writing</t>
+          <t>adj. 易受攻击的，脆弱的： open to attack or damage</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">He is a vulgar man but his music is quite divine.  虽然他是一个粗俗的人，但他的音乐却十分神圣。
-Latin was once the language of scholars, and English the vulgar language used by the common people.  </t>
+          <t>The troops were deployed in a vulnerable position.   部队被部署在了一个容易遭受攻击的位置。
+The fortwas undefended and vulnerable.  堡垒没有设防，十分脆弱。</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1614,18 +1603,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>vulnerable</t>
+          <t>waddle</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>adj. 易受攻击的，脆弱的： open to attack or damage</t>
+          <t>vi. 摇摇摆摆地走： to walk with short steps that tilt the body from side to side</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>The troops were deployed in a vulnerable position.   部队被部署在了一个容易遭受攻击的位置。
-The fortwas undefended and vulnerable.  堡垒没有设防，十分脆弱。</t>
+          <t>The duck waddled back into the water.  鸭子一摇一摆地回到了水中</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1637,17 +1625,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>waddle</t>
+          <t>waffle</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>vi. 摇摇摆摆地走： to walk with short steps that tilt the body from side to side</t>
+          <t>vi. 胡扯： to talk or write foolishly</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>The duck waddled back into the water.  鸭子一摇一摆地回到了水中</t>
+          <t>This lecturer will waffle on for hours.   这个老师会胡说八道地扯几个小时。</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1659,17 +1647,18 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>waffle</t>
+          <t>waft</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>vi. 胡扯： to talk or write foolishly</t>
+          <t>vt. 飘荡，漂浮： to float easily and gently, as on the air</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>This lecturer will waffle on for hours.   这个老师会胡说八道地扯几个小时。</t>
+          <t>Heavenly aromas wafted from the kitchen.  令人欣悦的香气从厨房飘出。
+A feather wafted past usand settled on the grass.   一片羽毛飘过我们身边，落在草地上。</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1681,18 +1670,19 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>waft</t>
+          <t>wag</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>vt. 飘荡，漂浮： to float easily and gently, as on the air</t>
+          <t>n. 幽默诙谐的人： a humorous or droll person
+vt. 摆动： to move to and fro or up and down especially with quick jerky motions</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Heavenly aromas wafted from the kitchen.  令人欣悦的香气从厨房飘出。
-A feather wafted past usand settled on the grass.   一片羽毛飘过我们身边，落在草地上。</t>
+          <t>Some wag wrote a droll satire on the scandal.   一些有才的人就丑闻写了一个搞怪的讽刺。
+The dog wagged its tail.  狗摆动着它的尾巴。</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1704,19 +1694,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>wag</t>
+          <t>wan</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>n. 幽默诙谐的人： a humorous or droll person
-vt. 摆动： to move to and fro or up and down especially with quick jerky motions</t>
+          <t>adj. 苍白的，病态的： suggestive of poor health</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Some wag wrote a droll satire on the scandal.   一些有才的人就丑闻写了一个搞怪的讽刺。
-The dog wagged its tail.  狗摆动着它的尾巴。</t>
+          <t>She looks a little wan after all that tiring work.   在完成那些繁重的工作之后她看起来有些虚弱。</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1728,17 +1716,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>wan</t>
+          <t>wanderlust</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>adj. 苍白的，病态的： suggestive of poor health</t>
+          <t>n. 旅行癖： a very strong or irresistible impulse to travel</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>She looks a little wan after all that tiring work.   在完成那些繁重的工作之后她看起来有些虚弱。</t>
+          <t>His wanderlust would not allow him to stay long in one spot.   他对旅行的渴望让他不可能在一处久待。</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1750,17 +1738,18 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>wanderlust</t>
+          <t>wane</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>n. 旅行癖： a very strong or irresistible impulse to travel</t>
+          <t>vi. 减少，衰退，降低： to decrease in size, extent, or degree</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>His wanderlust would not allow him to stay long in one spot.   他对旅行的渴望让他不可能在一处久待。</t>
+          <t xml:space="preserve">In the evening the storm finally waned.  傍晚时分风暴终于减弱了。
+The moon waxes and then wanes.  </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1772,45 +1761,44 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>wane</t>
+          <t>want</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>vi. 减少，衰退，降低： to decrease in size, extent, or degree</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In the evening the storm finally waned.  傍晚时分风暴终于减弱了。
-The moon waxes and then wanes.  </t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>want</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
         <is>
           <t>n. 短缺： the condition or quality of lacking something usual or necessary
 vt. 渴望： to have a strong desire for</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>There's a notable want of teachers in rural areas.   农村地区存在着值得注意的师资短缺问题
 I want a new car so badly! 我太想要一辆新车了！
 She wanted more time to finish the test.  她 希 望能有更多的时间来完成考试。</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>warmonger</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>n. 好战者： one who urges or attempts to stir up war</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Fortunately, the warmongers met with overwhelming opposition.   幸运的是，好战者们碰到了巨大的阻力。</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1820,19 +1808,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>warmonger</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>n. 好战者： one who urges or attempts to stir up war</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Fortunately, the warmongers met with overwhelming opposition.   幸运的是，好战者们碰到了巨大的阻力。</t>
-        </is>
-      </c>
+          <t>warp</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1842,11 +1822,21 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>warp</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+          <t>warrant</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>vt. 承诺： to assume responsibility for the satisfactory quality or performance of
+vt. 批准，认可： to give official acceptance of as satisfactory</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>The computer company unconditionally warrants all of its products for one full year.  这 个 电 脑 公 司 对所有的产品提供为期一年的质量保证。
+The law warrants these measures.   法律允许这些措施。</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1856,19 +1846,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>warrant</t>
+          <t>wary</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>vt. 承诺： to assume responsibility for the satisfactory quality or performance of
-vt. 批准，认可： to give official acceptance of as satisfactory</t>
+          <t>adj. 小心的，机警的，谨慎的： marked by keen caution, cunning, and watchfulness</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>The computer company unconditionally warrants all of its products for one full year.  这 个 电 脑 公 司 对所有的产品提供为期一年的质量保证。
-The law warrants these measures.   法律允许这些措施。</t>
+          <t>kept a wary eye out for signs of the enemy  对敌人出现的征兆保持警惕</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1880,17 +1868,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>wary</t>
+          <t>wastrel</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>adj. 小心的，机警的，谨慎的： marked by keen caution, cunning, and watchfulness</t>
+          <t>n. 肆意挥霍的人，败家子： one who expends resources foolishly and self-indulgently</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>kept a wary eye out for signs of the enemy  对敌人出现的征兆保持警惕</t>
+          <t>He ended up being a wastrel and a drunkard.   他最后成了一个花天酒地的败家子。</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1902,17 +1890,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>wastrel</t>
+          <t>watershed</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>n. 肆意挥霍的人，败家子： one who expends resources foolishly and self-indulgently</t>
+          <t>n. 重要关头，分水岭： a crucial dividing point: turning point</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>He ended up being a wastrel and a drunkard.   他最后成了一个花天酒地的败家子。</t>
+          <t>a watershed moment in her life  她命运的分水岭</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1924,19 +1912,16 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>watershed</t>
+          <t>wax</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>n. 重要关头，分水岭： a crucial dividing point: turning point</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>a watershed moment in her life  她命运的分水岭</t>
-        </is>
-      </c>
+          <t>vi. 月亮渐满： to increase in phase or intensity, used chiefly of the moon, other satellites, and inferiorplanets
+vt. 用蜡涂、处理或上光： to coat (something) with a slippery substance in order to reduce friction</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1946,16 +1931,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>wax</t>
+          <t>waylay</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>vi. 月亮渐满： to increase in phase or intensity, used chiefly of the moon, other satellites, and inferiorplanets
-vt. 用蜡涂、处理或上光： to coat (something) with a slippery substance in order to reduce friction</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>vt. 埋伏，伏击： to lie in wait for or attack from ambush</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Unsuspecting tourists are often waylaid by gangs.   不警惕的旅客们常常被犯罪团伙偷袭。
+We werewaylaid by a group of protestors with rocks.   我们被一群示威者用石头偷袭了。</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1965,18 +1954,18 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>waylay</t>
+          <t>welter</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>vt. 埋伏，伏击： to lie in wait for or attack from ambush</t>
+          <t>n. 混乱；动乱： a state of wild disorder</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Unsuspecting tourists are often waylaid by gangs.   不警惕的旅客们常常被犯罪团伙偷袭。
-We werewaylaid by a group of protestors with rocks.   我们被一群示威者用石头偷袭了。</t>
+          <t>There was a welter of pushing and shoving.   到处是推搡和拥挤的混乱局面。
+The troop withdrawalwould plunge the country into a welter of anarchy and endless civil war.   撤军会使得这个国家陷入无政府的动乱和无尽的内战中。</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1988,18 +1977,18 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>welter</t>
+          <t>wheedle</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>n. 混乱；动乱： a state of wild disorder</t>
+          <t>vt. （用花言巧语）诱惑，哄骗： to persuade or attempt to persuade by flattery or guile</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>There was a welter of pushing and shoving.   到处是推搡和拥挤的混乱局面。
-The troop withdrawalwould plunge the country into a welter of anarchy and endless civil war.   撤军会使得这个国家陷入无政府的动乱和无尽的内战中。</t>
+          <t>wheedled him into working for them  哄骗他为他们工作
+She pleaded and wheedled, but I wouldn't beswayed.   她软磨硬泡地求我，但我仍不动摇。</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2011,18 +2000,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>wheedle</t>
+          <t>whet</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>vt. （用花言巧语）诱惑，哄骗： to persuade or attempt to persuade by flattery or guile</t>
+          <t>vt. 磨快： to sharpen by rubbing on or with something (as a stone)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>wheedled him into working for them  哄骗他为他们工作
-She pleaded and wheedled, but I wouldn't beswayed.   她软磨硬泡地求我，但我仍不动摇。</t>
+          <t>whetted the dagger with the grindstone  用磨石把匕首磨锋利</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2034,44 +2022,44 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>whet</t>
+          <t>whiff</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>vt. 磨快： to sharpen by rubbing on or with something (as a stone)</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>whetted the dagger with the grindstone  用磨石把匕首磨锋利</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>whiff</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
         <is>
           <t>n. 微风： a quick puff or slight gust especially of air, odor, gas, smoke, or spray
 n. 细微的信号，略微痕迹： an almost imperceptible sign of something</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>A whiff of fresh air reinvigorated him.   一股清新的空气让他恢复了活力。
 Even a whiff of appreciation for everything I've done for her would have been nice.   她哪怕是对我为她的付出流露出一丁点的感激之情也好啊。
 Humanity is unregenerable and hates the language of conformity, sinceconformity has a whiff of the inhuman about it.   (Anthony Burgess) 人性是不能改造也无发统一的，因为一致性本身带有一点点不人道的意味。（安东尼•伯吉斯）</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>whimsical</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>adj. 反复无常的： prone to sudden illogical changes of mind, ideas, or actions</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>It’s hard to make plans with such a whimsical friend.  和这样一个反复无常的朋友做决定是很困难的。</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2081,17 +2069,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>whimsical</t>
+          <t>wholesome</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>adj. 反复无常的： prone to sudden illogical changes of mind, ideas, or actions</t>
+          <t>adj. 有益身心健康的： promoting mental, moral, or social health</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>It’s hard to make plans with such a whimsical friend.  和这样一个反复无常的朋友做决定是很困难的。</t>
+          <t>trying to eat a more wholesome diet  尽可能有更健康的饮食习惯</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2103,17 +2091,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>wholesome</t>
+          <t>wicked</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>adj. 有益身心健康的： promoting mental, moral, or social health</t>
+          <t>adj. 邪恶的： morally very bad</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>trying to eat a more wholesome diet  尽可能有更健康的饮食习惯</t>
+          <t>a wicked urge to steal just for the sake of stealing  纯粹为了偷盗而偷盗的邪恶冲动</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2125,17 +2113,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>wicked</t>
+          <t>wince</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>adj. 邪恶的： morally very bad</t>
+          <t>vi. 畏缩： to shrink back involuntarily as from pain</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>a wicked urge to steal just for the sake of stealing  纯粹为了偷盗而偷盗的邪恶冲动</t>
+          <t>winced at the horrible corpses  在令人恐惧的尸体面前畏缩</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2147,17 +2135,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>wince</t>
+          <t>windbag</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>vi. 畏缩： to shrink back involuntarily as from pain</t>
+          <t>n. 健谈的人： an exhaustively talkative person</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>winced at the horrible corpses  在令人恐惧的尸体面前畏缩</t>
+          <t>With a windbag like that, who needs a wind farm to meet our energy needs? 有了他这样一个多话的“吹风机”，谁还要风力发电厂来满足电力需求呢？</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2169,19 +2157,15 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>windbag</t>
+          <t>windy</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>n. 健谈的人： an exhaustively talkative person</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>With a windbag like that, who needs a wind farm to meet our energy needs? 有了他这样一个多话的“吹风机”，谁还要风力发电厂来满足电力需求呢？</t>
-        </is>
-      </c>
+          <t>adj. 冗长的： characterized by wearisome verbosity</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2191,15 +2175,19 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>windy</t>
+          <t>winsome</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>adj. 冗长的： characterized by wearisome verbosity</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+          <t>adj. 迷人的，漂亮的： generally pleasing and engaging often because of a childlike charm andinnocence</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>fascinated by her winsome smile  为她动人一笑所倾倒</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2209,17 +2197,19 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>winsome</t>
+          <t>wit</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>adj. 迷人的，漂亮的： generally pleasing and engaging often because of a childlike charm andinnocence</t>
+          <t>n. 机智，智慧： the natural ability to perceive and understand
+n. 智者，有智慧的人： a person of exceptional intelligence</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>fascinated by her winsome smile  为她动人一笑所倾倒</t>
+          <t>lacked the wit to judge  缺乏判断的智慧
+a man who fancied himself as a great wit  一个把自己想象成智慧的化身的男子</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2231,19 +2221,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>wit</t>
+          <t>withdraw</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>n. 机智，智慧： the natural ability to perceive and understand
-n. 智者，有智慧的人： a person of exceptional intelligence</t>
+          <t>vi. 撤退： to take back or away</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>lacked the wit to judge  缺乏判断的智慧
-a man who fancied himself as a great wit  一个把自己想象成智慧的化身的男子</t>
+          <t>The army was forced to withdraw from the frontline.  部队被迫从前线撤回</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2255,17 +2243,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>withdraw</t>
+          <t>wither</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>vi. 撤退： to take back or away</t>
+          <t>vi. 枯萎，凋谢： to become dry and sapless</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>The army was forced to withdraw from the frontline.  部队被迫从前线撤回</t>
+          <t>Amaranth is a legendary flower that never withers.   传说中的 Amaranth  是一种永不凋谢的花。</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2277,17 +2265,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>wither</t>
+          <t>withhold</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>vi. 枯萎，凋谢： to become dry and sapless</t>
+          <t>vt. 扣压，不给予： to refrain from granting, giving, or allowing</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Amaranth is a legendary flower that never withers.   传说中的 Amaranth  是一种永不凋谢的花。</t>
+          <t>withhold sensitive information  限制敏感信息的传播</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2299,19 +2287,16 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>withhold</t>
+          <t>wizen</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>vt. 扣压，不给予： to refrain from granting, giving, or allowing</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>withhold sensitive information  限制敏感信息的传播</t>
-        </is>
-      </c>
+          <t>vt. （使）凋谢，（使）枯萎： to become dry, shrunken, and wrinkled often as a result of aging or offailing vitality
+adj. 凋谢的, 枯萎的： shriveled or dried up</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2321,16 +2306,21 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>wizen</t>
+          <t>wobble</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>vt. （使）凋谢，（使）枯萎： to become dry, shrunken, and wrinkled often as a result of aging or offailing vitality
-adj. 凋谢的, 枯萎的： shriveled or dried up</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
+          <t>vi. 摇晃，颤抖： to move or proceed with an irregular rocking or staggering motion or unsteadily andclumsily from side to side
+vi. 犹豫不决： to show uncertainty about the right course of action</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>The drunk stood up, wobbled for a moment, and fell forward.  醉汉站了起来，晃动了一阵，然后向前倒了下去。
+We cannot tolerate the government wobbling at this critical time.   我们不能容忍政府在这种关键时刻犹豫不决。</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2340,46 +2330,46 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>wobble</t>
+          <t>worldly</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>vi. 摇晃，颤抖： to move or proceed with an irregular rocking or staggering motion or unsteadily andclumsily from side to side
-vi. 犹豫不决： to show uncertainty about the right course of action</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>The drunk stood up, wobbled for a moment, and fell forward.  醉汉站了起来，晃动了一阵，然后向前倒了下去。
-We cannot tolerate the government wobbling at this critical time.   我们不能容忍政府在这种关键时刻犹豫不决。</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>worldly</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
         <is>
           <t>adj. 世间的，世俗的： of this world rather than spiritual or religion affairs
 adj. 老练的： experienced in human affairs</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>preoccupied with worldly concerns  纠缠于世俗的忧虑
 It is time you woke up and focused yourthoughts on more worldly matters.   现在你应该停止做梦然后把自己的精力集中在更现实的问题上了。
 My little sister was worldly and sophisticated, quite unlike me.  与我截然不同的是，我的妹妹在为人处世方面非常老练。</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>worship</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>n. 崇拜，敬仰： extravagant respect to an object of esteem
+v. 崇拜，膜拜： to offer honor or respect to (someone) as a divine power</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>the belief in swords and the worship of force  刀剑信仰与武力崇拜
+The ancient Greeks worshipped many different gods.   古希腊人崇拜不同的神明。</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2389,19 +2379,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>worship</t>
+          <t>wrangle</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>n. 崇拜，敬仰： extravagant respect to an object of esteem
-v. 崇拜，膜拜： to offer honor or respect to (someone) as a divine power</t>
+          <t>n. 纷争，争端： an often noisy or angry expression of differing opinions
+vi. 争吵： to quarrel noisily or angrily</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>the belief in swords and the worship of force  刀剑信仰与武力崇拜
-The ancient Greeks worshipped many different gods.   古希腊人崇拜不同的神明。</t>
+          <t>There was a bit of a wrangle over how much money to give the high school for its sports programs.   这个高中应该获得多少体育项目的拨款引起了一阵纷争。
+Local residents wrangled for hours about property taxes.  当地居民就房产税的问题争吵不休。</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2413,19 +2403,19 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>wrangle</t>
+          <t>wretched</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>n. 纷争，争端： an often noisy or angry expression of differing opinions
-vi. 争吵： to quarrel noisily or angrily</t>
+          <t>adj. 极差的： very poor in quality or ability
+adj. 沮丧的： deeply afflicted, dejected, or distressed in body or mind</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>There was a bit of a wrangle over how much money to give the high school for its sports programs.   这个高中应该获得多少体育项目的拨款引起了一阵纷争。
-Local residents wrangled for hours about property taxes.  当地居民就房产税的问题争吵不休。</t>
+          <t>the wretched conditions of the refugee camp  难民营极恶劣的条件
+She was wretched for weeks after breaking up with her boyfriend.  她与男友分手后郁闷了几个星期。</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2437,19 +2427,18 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>wretched</t>
+          <t>wry</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>adj. 极差的： very poor in quality or ability
-adj. 沮丧的： deeply afflicted, dejected, or distressed in body or mind</t>
+          <t>adj. 扭曲的： abnormally twisted or bent to one side
+adj. 坚持错误的： stubborn in adherence to wrong opinion or principles</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>the wretched conditions of the refugee camp  难民营极恶劣的条件
-She was wretched for weeks after breaking up with her boyfriend.  她与男友分手后郁闷了几个星期。</t>
+          <t>a wry smile  扭曲的笑容</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2461,20 +2450,15 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>wry</t>
+          <t>xenophobe</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>adj. 扭曲的： abnormally twisted or bent to one side
-adj. 坚持错误的： stubborn in adherence to wrong opinion or principles</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>a wry smile  扭曲的笑容</t>
-        </is>
-      </c>
+          <t>n. 仇视（或畏惧）外国人（或外国事物）者： one unduly fearful of what is foreign and especially ofpeople of foreign origin</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2484,15 +2468,19 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>xenophobe</t>
+          <t>yoke</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>n. 仇视（或畏惧）外国人（或外国事物）者： one unduly fearful of what is foreign and especially ofpeople of foreign origin</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>v. 连接： to become joined or linked</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>yoked several ideas together to propose a novel theory  将几个想法结合起来提出一个全新的理论</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2502,17 +2490,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>yoke</t>
+          <t>yokel</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>v. 连接： to become joined or linked</t>
+          <t>n. 乡下人，天真纯朴的人： a naive or gullible inhabitant of a rural areaor small town</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>yoked several ideas together to propose a novel theory  将几个想法结合起来提出一个全新的理论</t>
+          <t>a lame comedy about the misadventures of yokels in the big city  描述乡下人在大都市中遭遇的不幸的劣质喜剧</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2524,17 +2512,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>yokel</t>
+          <t>zeal</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>n. 乡下人，天真纯朴的人： a naive or gullible inhabitant of a rural areaor small town</t>
+          <t>n. 热心，热诚： enthusiastic devotion to a cause, ideal, or goal and tireless diligence in itsfurtherance</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>a lame comedy about the misadventures of yokels in the big city  描述乡下人在大都市中遭遇的不幸的劣质喜剧</t>
+          <t>preaches with fanatical zeal  带着狂热进行传教</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2546,17 +2534,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>zeal</t>
+          <t>zealot</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>n. 热心，热诚： enthusiastic devotion to a cause, ideal, or goal and tireless diligence in itsfurtherance</t>
+          <t>n. 狂热者： a zealous person; especially: a fanatical partisan</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>preaches with fanatical zeal  带着狂热进行传教</t>
+          <t>a religious zealot calling for another Crusade  呼唤下一场十字军东征的宗教狂热者</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2568,17 +2556,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>zealot</t>
+          <t>zenith</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>n. 狂热者： a zealous person; especially: a fanatical partisan</t>
+          <t>n. 最高点，巅峰： culminating point</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>a religious zealot calling for another Crusade  呼唤下一场十字军东征的宗教狂热者</t>
+          <t>at the zenith of his power  位极人臣</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2590,17 +2578,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>zenith</t>
+          <t>zesty</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>n. 最高点，巅峰： culminating point</t>
+          <t>adj. 刺激的，开胃的： appealingly piquant or lively</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>at the zenith of his power  位极人臣</t>
+          <t>a zesty sauce  味道刺激的酱汁</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2612,17 +2600,18 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>zesty</t>
+          <t>ravenous</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>adj. 刺激的，开胃的： appealingly piquant or lively</t>
+          <t>adj. 食量大的，贪食的： having a huge appetite</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>a zesty sauce  味道刺激的酱汁</t>
+          <t>He had moderated his ravenous appetite.   他克制了自己的食欲。
+ravenous for power  渴望权力</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2634,18 +2623,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ravenous</t>
+          <t>simile</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>adj. 食量大的，贪食的： having a huge appetite</t>
+          <t>n. 明喻： a figure of speech comparing two unlike things that is often introduced by like or as</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>He had moderated his ravenous appetite.   他克制了自己的食欲。
-ravenous for power  渴望权力</t>
+          <t>Even though both similes and metaphors are forms of comparison, similes indirectly compare the two ideasand allow them to remain distinct in spite of their similarities, whereas metaphors compare two things directly.   Forinstance, a simile that compares a person with a bullet would go as follows: "Chris was a record-setting runner asfast as a speeding bullet.  " A metaphor might read something like, "When Chris ran, he was a speeding bulletracing along the track.  "尽管明喻和暗喻都是比喻的手法，明喻会间接地对两个对象进行比较，同时允许差异的存在，而暗喻则直接对两者进行比较。比如说，用明喻来把一个人比作子弹会这样说：“克里斯是一个不断打破记录的选手，他跑得就和高速子弹一样快。”而暗喻可能会说：“当克里斯奔跑的时候，他就是一颗在赛场上高速飞行的子弹。”</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2657,45 +2645,37 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>simile</t>
+          <t>shift</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>n. 明喻： a figure of speech comparing two unlike things that is often introduced by like or as</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Even though both similes and metaphors are forms of comparison, similes indirectly compare the two ideasand allow them to remain distinct in spite of their similarities, whereas metaphors compare two things directly.   Forinstance, a simile that compares a person with a bullet would go as follows: "Chris was a record-setting runner asfast as a speeding bullet.  " A metaphor might read something like, "When Chris ran, he was a speeding bulletracing along the track.  "尽管明喻和暗喻都是比喻的手法，明喻会间接地对两个对象进行比较，同时允许差异的存在，而暗喻则直接对两者进行比较。比如说，用明喻来把一个人比作子弹会这样说：“克里斯是一个不断打破记录的选手，他跑得就和高速子弹一样快。”而暗喻可能会说：“当克里斯奔跑的时候，他就是一颗在赛场上高速飞行的子弹。”</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>shift</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
         <is>
           <t>vt. 改变…的位置： to change the place or position of
 vi. 改变，变化： to pass from one form, state, or level to another
 vt. 交换： to give up (something) and take something else in return</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>She shifted the vase closer to the wall so that it wouldn't get knocked over.  她把花瓶靠墙挪动了一点，从而防止它被碰倒。
 She watched the aurora in fascination as its colors shifted from green to blue.   她着迷地看着极光的色彩从绿变成蓝。
 My father and I shifted seats just before takeoff so that I could sit by the window.   起飞前我和我父亲交换了座位，这样我就可以靠窗坐了。</t>
         </is>
       </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>damn</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2705,11 +2685,21 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>damn</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
+          <t>nirvana</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>n. 彻底放松的状态： a state of being disregardful or unconscious of one's surroundings, concerns,or obligations
+n. 天堂，极乐世界： an often imaginary place or state of utter perfection and happiness</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The spa experience was a week of pure nirvana.   去泡温泉水疗的经历真是彻底的放松。
+They believe in a continuous cycle of births and deaths until the soul is perfected and achieves nirvana.  </t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2719,19 +2709,19 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>nirvana</t>
+          <t>nourish</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>n. 彻底放松的状态： a state of being disregardful or unconscious of one's surroundings, concerns,or obligations
-n. 天堂，极乐世界： an often imaginary place or state of utter perfection and happiness</t>
+          <t>vt. 养育，抚养： to provide with food or other substances necessary for life and growth
+vt. 培养，促进： to help the growth or development of</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve">The spa experience was a week of pure nirvana.   去泡温泉水疗的经历真是彻底的放松。
-They believe in a continuous cycle of births and deaths until the soul is perfected and achieves nirvana.  </t>
+          <t>He willingly nourished a child that was not his own.   他主动地抚养了一名不是他亲生的孩子。
+a friendship nourished by trust  在信任的基础之上开出的友谊之花</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2743,19 +2733,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>nourish</t>
+          <t>plodder</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>vt. 养育，抚养： to provide with food or other substances necessary for life and growth
-vt. 培养，促进： to help the growth or development of</t>
+          <t>n. 行走缓慢的人： someone who moves slowly or more slowly than others</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>He willingly nourished a child that was not his own.   他主动地抚养了一名不是他亲生的孩子。
-a friendship nourished by trust  在信任的基础之上开出的友谊之花</t>
+          <t>The guide halted the tour group so that the plodders who had fallen behind could catch up.   导 游 让 队 伍停下来，以便那些落在后头的行动缓慢的人可以跟上。</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2767,17 +2755,19 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>plodder</t>
+          <t>misapprehension</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>n. 行走缓慢的人： someone who moves slowly or more slowly than others</t>
+          <t>n. 错误的理解： a failure to understand correctly
+n. 错误的判断： a wrong judgement</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>The guide halted the tour group so that the plodders who had fallen behind could catch up.   导 游 让 队 伍停下来，以便那些落在后头的行动缓慢的人可以跟上。</t>
+          <t>tried to eliminate all misapprehensions about the planned riverfront development  尽可能消除所有关于河流沿岸发展计划的误解
+a common misapprehension about how our language functions  有关我们的语言如何运作的常见误判</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2789,47 +2779,45 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>misapprehension</t>
+          <t>ferocious</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
-        <is>
-          <t>n. 错误的理解： a failure to understand correctly
-n. 错误的判断： a wrong judgement</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>tried to eliminate all misapprehensions about the planned riverfront development  尽可能消除所有关于河流沿岸发展计划的误解
-a common misapprehension about how our language functions  有关我们的语言如何运作的常见误判</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>ferocious</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
         <is>
           <t>adj. 极端的，剧烈的： marked by unrelenting intensity
 adj. 激烈的，爆发性的： marked by bursts of destructive force or intense activity
 adj. 凶猛的，残暴的： violently unfriendly or aggressive in disposition</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Ferocious heat wave kept people indoor.   剧烈的热浪使人不能出门。
 Ferocious forest fires threatened to destroy hundreds of homes in the scrubland.   肆虐的森林大火威胁着灌木丛中数百户居民的住所。
 captured and slaughtered by the ferocious tribesmen  被残暴的部落居民所抓获并惨遭屠杀</t>
         </is>
       </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>affix</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>vt. 粘合： to attach physically</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>affix a stamp to a letter  把邮票贴在信封上</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2839,17 +2827,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>affix</t>
+          <t>asymmetry</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>vt. 粘合： to attach physically</t>
+          <t>n. 不对称，不平衡： lack of balance or symmetry</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>affix a stamp to a letter  把邮票贴在信封上</t>
+          <t>functional asymmetry of cerebral hemispheres  大脑两半球功能不对称性</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2861,17 +2849,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>asymmetry</t>
+          <t>equilibrium</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>n. 不对称，不平衡： lack of balance or symmetry</t>
+          <t>n. 均势，平衡： a condition in which opposing forces are equal to one another</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>functional asymmetry of cerebral hemispheres  大脑两半球功能不对称性</t>
+          <t xml:space="preserve">We must find an equilibrium between commercial development and conservation of our natural treasures.  </t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2883,44 +2871,46 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>equilibrium</t>
+          <t>delegate</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
-        <is>
-          <t>n. 均势，平衡： a condition in which opposing forces are equal to one another</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We must find an equilibrium between commercial development and conservation of our natural treasures.  </t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>delegate</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
         <is>
           <t>n. 代理人，代表： a person authorized to act as representative for another
 vt. 移交（权力，任务等）： to put (something) into the possession or safekeeping of another</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>The real estate developer sent a delegate to the town meeting to represent his interests.  房 地 产 开 发商派了一名能代表自己利益的代理前往镇上开会。
 the U.  N.   delegates from African countries  非 洲 国 家 的 驻 联合国代表
 The manager is reluctant to delegate authority to subordinates while abroad.   经理不愿意在国外期间将自己的权力转交给下级。</t>
         </is>
       </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>pious</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>adj. （信仰上）虔诚的： marked by or showing reverence for deity and devotion to divine worship
+adj. 忠诚的： firm in one's allegiance to someone or something</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>a pious woman who decided to become a nun  一个决心成为修女的虔诚女子
+a pious supporter of his school's athletic teams, during winning and losing seasons alike  学 校 体 育 队的忠诚支持者，不论他们是输或赢</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2930,19 +2920,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>pious</t>
+          <t>hierarchical</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>adj. （信仰上）虔诚的： marked by or showing reverence for deity and devotion to divine worship
-adj. 忠诚的： firm in one's allegiance to someone or something</t>
+          <t>adj. 分等级的，等级制的： classified according to various criteria into successive levels or layers</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>a pious woman who decided to become a nun  一个决心成为修女的虔诚女子
-a pious supporter of his school's athletic teams, during winning and losing seasons alike  学 校 体 育 队的忠诚支持者，不论他们是输或赢</t>
+          <t>the traditional hierarchical system of military organization  军队中传统的等级制度</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2954,17 +2942,18 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>hierarchical</t>
+          <t>obsolete</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>adj. 分等级的，等级制的： classified according to various criteria into successive levels or layers</t>
+          <t>adj. 过时的，被淘汰的： no longer in use or no longer useful</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>the traditional hierarchical system of military organization  军队中传统的等级制度</t>
+          <t>I was told my old printer is obsolete and I can't get replacement parts.  我被告知我的打印机已经被淘汰了，因此无法更换配件。
+an obsolete word  一个已经废弃不用的单词</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2976,18 +2965,18 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>obsolete</t>
+          <t>peel</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>adj. 过时的，被淘汰的： no longer in use or no longer useful</t>
+          <t>vt. 剥去： to strip off an outer layer of
+vi. 脱去（衣服等）： to take off one's clothes</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>I was told my old printer is obsolete and I can't get replacement parts.  我被告知我的打印机已经被淘汰了，因此无法更换配件。
-an obsolete word  一个已经废弃不用的单词</t>
+          <t>She can peel apples with lightning speed.   她能以飞快的速度削苹果。</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2999,18 +2988,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>peel</t>
+          <t>wiretap</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>vt. 剥去： to strip off an outer layer of
-vi. 脱去（衣服等）： to take off one's clothes</t>
+          <t>n./vt. 偷听，窃听： to tap a telephone or telegraph wire in order to get information</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>She can peel apples with lightning speed.   她能以飞快的速度削苹果。</t>
+          <t>This line is not clean asCIAmight have wiretapped it.   这根线路不安全，因为中情局可能已经在监听了。</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3022,17 +3010,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>wiretap</t>
+          <t>surveillance</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>n./vt. 偷听，窃听： to tap a telephone or telegraph wire in order to get information</t>
+          <t>n. 监视，监控： close observation of a person or group, especially one under suspicion</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>This line is not clean asCIAmight have wiretapped it.   这根线路不安全，因为中情局可能已经在监听了。</t>
+          <t>government surveillance of suspected terrorists  政府对于恐怖分子嫌疑人的监控</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3044,17 +3032,19 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>surveillance</t>
+          <t>perceptive</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>n. 监视，监控： close observation of a person or group, especially one under suspicion</t>
+          <t>adj. 敏锐的： able to sense slight impressions or differences
+adj. 洞察力强的： having or showing deep understanding and intelligent application of knowledge</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>government surveillance of suspected terrorists  政府对于恐怖分子嫌疑人的监控</t>
+          <t>Due to their ability to rotate their ears, cats are very perceptive when it comes to pinpointing the source ofa sound.   由于猫能够转动它们的耳朵，所以它们能十分敏锐地确定声源的位置。
+A perceptive teacher was able to discover what was really troubling the youth.   一个洞察力强的老师应该能察觉真正困扰青少年是什么。</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3066,19 +3056,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>perceptive</t>
+          <t>renege</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>adj. 敏锐的： able to sense slight impressions or differences
-adj. 洞察力强的： having or showing deep understanding and intelligent application of knowledge</t>
+          <t>vt. 放弃，摒弃： to solemnly or formally reject or go back on (as something formerly adhered to)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Due to their ability to rotate their ears, cats are very perceptive when it comes to pinpointing the source ofa sound.   由于猫能够转动它们的耳朵，所以它们能十分敏锐地确定声源的位置。
-A perceptive teacher was able to discover what was really troubling the youth.   一个洞察力强的老师应该能察觉真正困扰青少年是什么。</t>
+          <t>She refused to renege the principles by which she had always lived her life, even if it resulted in losing herbusiness.  尽管有可能使她失去她的事业，但她仍然拒绝放弃她在生命中所坚持的那些原则。</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3090,19 +3078,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>renege</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>vt. 放弃，摒弃： to solemnly or formally reject or go back on (as something formerly adhered to)</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>She refused to renege the principles by which she had always lived her life, even if it resulted in losing herbusiness.  尽管有可能使她失去她的事业，但她仍然拒绝放弃她在生命中所坚持的那些原则。</t>
-        </is>
-      </c>
+          <t>rigmarole</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3112,11 +3092,21 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>rigmarole</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
+          <t>implicit</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>adj. 不言而喻的，心照不宣的： capable of being understood from something else thoughunexpressed
+adj. 无疑问的，无保留的： being without doubt or reserve</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>The implicit agreement among members of the outing club is that everyone pays his or her own way on alltrips.  野外俱乐部成员之间一条心照不宣的约定就是：沿途所有开销都 AA。
+Members of the expedition must have implicit trust in their leaders.   远征的队员必须百分之百地信任他们的领队。</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3126,19 +3116,19 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>implicit</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>adj. 不言而喻的，心照不宣的： capable of being understood from something else thoughunexpressed
-adj. 无疑问的，无保留的： being without doubt or reserve</t>
+          <t>adj. 边缘的： located at or near a border
+adj. 不重要的： not of central importance</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>The implicit agreement among members of the outing club is that everyone pays his or her own way on alltrips.  野外俱乐部成员之间一条心照不宣的约定就是：沿途所有开销都 AA。
-Members of the expedition must have implicit trust in their leaders.   远征的队员必须百分之百地信任他们的领队。</t>
+          <t>Marginal locations in the open-air market are a bit cheaper.   露天市场边缘的地段通常都要便宜些。
+regards violence as a marginal rather than a central problem  并不把暴力问题当作重要的核心问题来看</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3150,19 +3140,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>marginal</t>
+          <t>pivotal</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>adj. 边缘的： located at or near a border
-adj. 不重要的： not of central importance</t>
+          <t>adj. 最关键的，最为重要的： of the greatest possible importance</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Marginal locations in the open-air market are a bit cheaper.   露天市场边缘的地段通常都要便宜些。
-regards violence as a marginal rather than a central problem  并不把暴力问题当作重要的核心问题来看</t>
+          <t>The report was missing a pivotal piece of information.   报告遗漏了最为重要的信息。</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3174,17 +3162,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>pivotal</t>
+          <t>unavailing</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>adj. 最关键的，最为重要的： of the greatest possible importance</t>
+          <t>adj. 徒劳的，无果的： producing no results</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>The report was missing a pivotal piece of information.   报告遗漏了最为重要的信息。</t>
+          <t>an unavailing effort to avert a war  试图避免战争的徒劳尝试</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3196,17 +3184,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>unavailing</t>
+          <t>cachet</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>adj. 徒劳的，无果的： producing no results</t>
+          <t>n. 威望，声望： a mark or quality, as of distinction, individuality, or authenticity</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>an unavailing effort to avert a war  试图避免战争的徒劳尝试</t>
+          <t>Federal courts have a certain cachet which state courts lack.  联邦法院拥有州立法院所不具备的威信。</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3218,17 +3206,18 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>cachet</t>
+          <t>graft</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>n. 威望，声望： a mark or quality, as of distinction, individuality, or authenticity</t>
+          <t>vt. 移植，移接： to implant (living tissue) surgically or as if surgically</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Federal courts have a certain cachet which state courts lack.  联邦法院拥有州立法院所不具备的威信。</t>
+          <t>The top layer of skin has to be grafted onto the burns.   顶层的皮肤需要被移植到烧伤的伤口上。
+graftold traditions onto the new ones  把老传统移植到新的习俗之上</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3240,18 +3229,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>graft</t>
+          <t>feisty</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>vt. 移植，移接： to implant (living tissue) surgically or as if surgically</t>
+          <t>adj. 好斗的，好争论的： having or showing a lively aggressiveness</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>The top layer of skin has to be grafted onto the burns.   顶层的皮肤需要被移植到烧伤的伤口上。
-graftold traditions onto the new ones  把老传统移植到新的习俗之上</t>
+          <t>At 66, she was as feisty as ever.   尽管已经 66 岁高龄，她还是一样好斗。</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3263,17 +3251,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>feisty</t>
+          <t>cascade</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>adj. 好斗的，好争论的： having or showing a lively aggressiveness</t>
+          <t>n. （尤指小的）瀑布： a steep usually small fall of water</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>At 66, she was as feisty as ever.   尽管已经 66 岁高龄，她还是一样好斗。</t>
+          <t>The river forms a series of cascades as it drops a total of 200 feet in elevation.  这 条 河 前后 海 拔差 达200 余英尺，故而形成了一系列的小瀑布。</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3285,17 +3273,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>cascade</t>
+          <t>domineer</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>n. （尤指小的）瀑布： a steep usually small fall of water</t>
+          <t>vt. 专制统治： to exercise arbitrary or overbearing control</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>The river forms a series of cascades as it drops a total of 200 feet in elevation.  这 条 河 前后 海 拔差 达200 余英尺，故而形成了一系列的小瀑布。</t>
+          <t>Her husband and mother-in-law tyrannize her.   她生活在她丈夫和婆婆的高压统治下。</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3307,17 +3295,19 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>domineer</t>
+          <t>vile</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>vt. 专制统治： to exercise arbitrary or overbearing control</t>
+          <t>adj. 丑陋的： unpleasant to look at
+adj. （道德上）可鄙的，卑鄙的： morally despicable or abhorrent</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Her husband and mother-in-law tyrannize her.   她生活在她丈夫和婆婆的高压统治下。</t>
+          <t>a truly vile combination of colors  着实丑陋的混搭色调
+Nothing is so vile as intellectual dishonesty.   没什么比智力上的欺骗更为可鄙的了。</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3329,19 +3319,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>vile</t>
+          <t>poach</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>adj. 丑陋的： unpleasant to look at
-adj. （道德上）可鄙的，卑鄙的： morally despicable or abhorrent</t>
+          <t>vt. 水煮： to cook in a liquid heated to the point that it gives off steam</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>a truly vile combination of colors  着实丑陋的混搭色调
-Nothing is so vile as intellectual dishonesty.   没什么比智力上的欺骗更为可鄙的了。</t>
+          <t>He poached an egg for breakfast.  他煮了一个荷包蛋做早饭。</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3353,17 +3341,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>poach</t>
+          <t>palpitation</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>vt. 水煮： to cook in a liquid heated to the point that it gives off steam</t>
+          <t>n. （有节奏的）舒张收缩： a rhythmic expanding and contracting</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>He poached an egg for breakfast.  他煮了一个荷包蛋做早饭。</t>
+          <t>a palpitation of the blood vessels  血管有节奏的舒张收缩</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3375,17 +3363,19 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>palpitation</t>
+          <t>palaver</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>n. （有节奏的）舒张收缩： a rhythmic expanding and contracting</t>
+          <t>n. 对话，交流： an exchange of views for the purpose of exploring a subject or deciding an issue
+vi. 闲聊： to talk profusely or idly</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>a palpitation of the blood vessels  血管有节奏的舒张收缩</t>
+          <t>seemingly endless palaver between the negotiating parties  谈判双方之间看似没有尽头的对话
+Mothers were palavering and drinking coffee while watching their children play.  母 亲 们 一边 看 着她 们的孩子玩耍，一边喝着咖啡闲谈。</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3397,19 +3387,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>palaver</t>
+          <t>favoritism</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>n. 对话，交流： an exchange of views for the purpose of exploring a subject or deciding an issue
-vi. 闲聊： to talk profusely or idly</t>
+          <t>n. 偏爱，偏袒： the showing of special favor</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>seemingly endless palaver between the negotiating parties  谈判双方之间看似没有尽头的对话
-Mothers were palavering and drinking coffee while watching their children play.  母 亲 们 一边 看 着她 们的孩子玩耍，一边喝着咖啡闲谈。</t>
+          <t>Favoritism blinded the administrator to the benefits of the proposed system for distributing work.   偏 袒 使得经理无法意识到这一待讨论的分配系统所带来的收益。</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3421,17 +3409,19 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>favoritism</t>
+          <t>overwrought</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>n. 偏爱，偏袒： the showing of special favor</t>
+          <t>adj. 十分激动的，非常不安的： being in a state of increased activity or agitation
+adj. （装饰）过分华丽的： elaborately and often excessively decorated</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Favoritism blinded the administrator to the benefits of the proposed system for distributing work.   偏 袒 使得经理无法意识到这一待讨论的分配系统所带来的收益。</t>
+          <t>She became overwrought when she heard that her child was missing.  当她得知自己孩子失踪的消息后变得极其激动和不安。
+The author's prose is overwrought with purple passages and florid metaphors.   这个作者的散文里充满了词藻华丽的段落和比喻，显得有些过分。</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3443,19 +3433,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>overwrought</t>
+          <t>sequel</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>adj. 十分激动的，非常不安的： being in a state of increased activity or agitation
-adj. （装饰）过分华丽的： elaborately and often excessively decorated</t>
+          <t>n. 结果： a result or consequence</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>She became overwrought when she heard that her child was missing.  当她得知自己孩子失踪的消息后变得极其激动和不安。
-The author's prose is overwrought with purple passages and florid metaphors.   这个作者的散文里充满了词藻华丽的段落和比喻，显得有些过分。</t>
+          <t>Higher prices are a logical sequel to higher costs for manufacturers.   从逻辑上来说，更高的价格是更高的生产成本的结果。</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3467,17 +3455,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>sequel</t>
+          <t>fad</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>n. 结果： a result or consequence</t>
+          <t>n. （短暂的）流行，时尚： a practice or interest that is very popular for a short time</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Higher prices are a logical sequel to higher costs for manufacturers.   从逻辑上来说，更高的价格是更高的生产成本的结果。</t>
+          <t>Once the fad for that kind of music had passed, nobody would have been caught dead listening to it.   一旦那种流派的音乐流行风刮过之后，就没有人会来听它出丑了。</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3489,17 +3477,19 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>fad</t>
+          <t>arid</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>n. （短暂的）流行，时尚： a practice or interest that is very popular for a short time</t>
+          <t>adj. 干燥的： marked by little or no precipitation or humidity
+adj. 无趣的，无聊的： causing weariness, restlessness, or lack of interest</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Once the fad for that kind of music had passed, nobody would have been caught dead listening to it.   一旦那种流派的音乐流行风刮过之后，就没有人会来听它出丑了。</t>
+          <t>arid wastelands unfit for human habitation  不适合人类居住的干燥荒原
+arid wastelands unfit for human habitation  不适合人类居住的干燥荒原</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3511,19 +3501,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>arid</t>
+          <t>avowal</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>adj. 干燥的： marked by little or no precipitation or humidity
-adj. 无趣的，无聊的： causing weariness, restlessness, or lack of interest</t>
+          <t>n. 承认： a solemn and often public declaration of the truth or existence of something</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>arid wastelands unfit for human habitation  不适合人类居住的干燥荒原
-arid wastelands unfit for human habitation  不适合人类居住的干燥荒原</t>
+          <t>With jingoism rampant, the peace candidate felt compelled to make an avowal of his patriotism.   在 沙 文主义肆虐的情况下，爱好和平的候选人被迫承认自己是个爱国主义者。</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3535,17 +3523,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>avowal</t>
+          <t>backfire</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>n. 承认： a solemn and often public declaration of the truth or existence of something</t>
+          <t>vi. 产生相反的结果，事与愿违： to have the reverse of the desired or expected effect</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>With jingoism rampant, the peace candidate felt compelled to make an avowal of his patriotism.   在 沙 文主义肆虐的情况下，爱好和平的候选人被迫承认自己是个爱国主义者。</t>
+          <t>My plan to throw her a surprise party backfired when she ended up sobbing that everyone had forgottenher birthday.   我本想给她的生日开一个聚会作为惊喜，但没想到事与愿违：她啜泣着说所有人都忘记了她的生日。</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3557,17 +3545,18 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>backfire</t>
+          <t>baffle</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>vi. 产生相反的结果，事与愿违： to have the reverse of the desired or expected effect</t>
+          <t>vt. 挫败，阻挠： to frustrate or check (a person) as by confusing or perplexing
+vt. 使疑惑： to throw into a state of mental uncertainty</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>My plan to throw her a surprise party backfired when she ended up sobbing that everyone had forgottenher birthday.   我本想给她的生日开一个聚会作为惊喜，但没想到事与愿违：她啜泣着说所有人都忘记了她的生日。</t>
+          <t>baffled by the language barrier  受到语言障碍的阻挠</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3579,18 +3568,19 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>baffle</t>
+          <t>careen</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>vt. 挫败，阻挠： to frustrate or check (a person) as by confusing or perplexing
-vt. 使疑惑： to throw into a state of mental uncertainty</t>
+          <t>vi. 蹒跚而行，不稳地行走： to lurch or swerve while in motion
+vi. 狂奔，快速运动： to rush headlong or carelessly</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>baffled by the language barrier  受到语言障碍的阻挠</t>
+          <t>He careened unsteadily to the couch after hitting his head.   在撞到头以后，他摇摇摆摆地走向沙发。
+Sounding its siren, an ambulance careened through the intersection.   救护车响着警笛飞驰通过十字路口。</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3602,19 +3592,18 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>careen</t>
+          <t>constrict</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>vi. 蹒跚而行，不稳地行走： to lurch or swerve while in motion
-vi. 狂奔，快速运动： to rush headlong or carelessly</t>
+          <t>vt. 压缩，压紧： to make smaller or narrower by or as if by binding or squeezing</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>He careened unsteadily to the couch after hitting his head.   在撞到头以后，他摇摇摆摆地走向沙发。
-Sounding its siren, an ambulance careened through the intersection.   救护车响着警笛飞驰通过十字路口。</t>
+          <t>lives constricted by poverty  因为贫穷而拮据的生活
+Severe migraine can be treated with a drug whichconstricts the blood vessels.  某些能使血管收缩的药物可用来治疗严重的偏头痛。</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3626,45 +3615,46 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>constrict</t>
+          <t>dampen</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
-        <is>
-          <t>vt. 压缩，压紧： to make smaller or narrower by or as if by binding or squeezing</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>lives constricted by poverty  因为贫穷而拮据的生活
-Severe migraine can be treated with a drug whichconstricts the blood vessels.  某些能使血管收缩的药物可用来治疗严重的偏头痛。</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>dampen</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
         <is>
           <t>vt. （特指稍稍地）弄湿： to make or become slightly or moderately wet
 vt. 抑制，压抑（感情，精力等），泼冷水： to check or diminish the feeling, activity or vigor of</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>dampen a paper towel with water and use it to clean up the mess  把纸巾弄湿用来清扫
 Nothing could dampen their enthusiasm.   没有什么能扼杀他们的激情。
 The oppressive heat dampenedour spirits.  让人难以忍受的酷暑让我们精神不振。</t>
         </is>
       </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>debonair</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>adj. 无忧无虑的，不在乎的： having or showing freedom from worries or troubles
+adj. 风度翩翩的： having or showing very polished and worldly manners</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>His debonair dismissal of my inquiry concerning his financial situation led me to believe that nothing waswrong.   对于我有关他个人理财的问题，他表现得毫不在乎，这使我相信没有问题。
+The debonair gentleman charmed all of the ladies in the room.   风度翩翩的绅士吸引了在场的所有女士。</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3674,19 +3664,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>debonair</t>
+          <t>fabulous</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>adj. 无忧无虑的，不在乎的： having or showing freedom from worries or troubles
-adj. 风度翩翩的： having or showing very polished and worldly manners</t>
+          <t>adj. 传说中的： based on, described in, or being a fable</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>His debonair dismissal of my inquiry concerning his financial situation led me to believe that nothing waswrong.   对于我有关他个人理财的问题，他表现得毫不在乎，这使我相信没有问题。
-The debonair gentleman charmed all of the ladies in the room.   风度翩翩的绅士吸引了在场的所有女士。</t>
+          <t>The city of Phoenix is named after a fabulous bird that every 500 years destroys itself with fire, only to riseagain from its own ashes.   凤凰城的名字来源于传说中的一种鸟，它每隔 500 年会在火焰中毁灭，然后再从灰烬中重生。</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3698,17 +3686,19 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>fabulous</t>
+          <t>hobble</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>adj. 传说中的： based on, described in, or being a fable</t>
+          <t>vi. 跛行，蹒跚而行： to walk or move along haltingly or with difficulty
+vt. 阻碍，妨碍： to hamper the action or progress of</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>The city of Phoenix is named after a fabulous bird that every 500 years destroys itself with fire, only to riseagain from its own ashes.   凤凰城的名字来源于传说中的一种鸟，它每隔 500 年会在火焰中毁灭，然后再从灰烬中重生。</t>
+          <t>She picked up her cane and hobbled across the room.   她拿起了一根手杖，一拐一拐地穿过了房间。
+We were hobbled by the snowstorm from getting out to do some Christmas shopping.   暴 雪 阻 碍 了 我 们圣诞购物的计划。</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3720,19 +3710,19 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>hobble</t>
+          <t>plush</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>vi. 跛行，蹒跚而行： to walk or move along haltingly or with difficulty
-vt. 阻碍，妨碍： to hamper the action or progress of</t>
+          <t>adj. （味道等）浓郁的： having an abundance of some characteristic quality (as flavor)
+adj. 奢华的，豪华的： notably luxurious</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>She picked up her cane and hobbled across the room.   她拿起了一根手杖，一拐一拐地穿过了房间。
-We were hobbled by the snowstorm from getting out to do some Christmas shopping.   暴 雪 阻 碍 了 我 们圣诞购物的计划。</t>
+          <t>a plush, ripe wine  味道浓郁的陈年老窖
+a plush castle filled with priceless art and antiques  一座充满了无价艺术品和古董的奢华城堡</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3744,46 +3734,46 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>plush</t>
+          <t>rhetorical</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
-        <is>
-          <t>adj. （味道等）浓郁的： having an abundance of some characteristic quality (as flavor)
-adj. 奢华的，豪华的： notably luxurious</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>a plush, ripe wine  味道浓郁的陈年老窖
-a plush castle filled with priceless art and antiques  一座充满了无价艺术品和古董的奢华城堡</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>rhetorical</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
         <is>
           <t>adj. 语言上的，文字上的： of or relating to words or language
 adj. 言辞华丽（却往往无内涵的）： full of fine words and fancy expressionsbut mostly meaninglesswords and phrases</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>The next war that those two nations fight won't be rhetorical - it will be with bombs and bullets.   两 国 之间的下一场战争可不会是斗嘴皮了——他们会来真格的。
 You can skip over the rhetorical passages and still get the gist of the essay.   你可以跳过那些词藻华丽的段落，直接获取文本的主旨。
 The new governor delivered a long rhetorical speech about our state's brightfuture but laid out no specific programs for ensuring it.   新的执政官发表了词藻华丽的演说，畅谈国家的美好未来，但却没有提出实现这一目标的具体措施。</t>
         </is>
       </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>trifle</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>n. 不重要的事： something of little importance or value
+vi. 不正经地对待，玩弄： to behave amorously without serious intent</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Let us not speak of trifles when our nation may be going to war.   战事在即，我们还是先放下这些琐事吧。
+Do not trifle with me unless you mean to ask me to marry you.   如果你不是真心想和我结婚，就请不要来玩弄我的感情。</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3793,19 +3783,18 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>trifle</t>
+          <t>weather</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>n. 不重要的事： something of little importance or value
-vi. 不正经地对待，玩弄： to behave amorously without serious intent</t>
+          <t>vt. 安全渡过（危机等），经受住： to come through (something) safely</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Let us not speak of trifles when our nation may be going to war.   战事在即，我们还是先放下这些琐事吧。
-Do not trifle with me unless you mean to ask me to marry you.   如果你不是真心想和我结婚，就请不要来玩弄我的感情。</t>
+          <t>We haveve weathered worse crises, and so we'll survive this one.  更为严重的危机我们都闯过了，这个也不会有问题的。
+They weathered a terrible storm while at sea.   他们在海上平安渡过了一场巨大的风暴。</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3817,18 +3806,18 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>weather</t>
+          <t>wily</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>vt. 安全渡过（危机等），经受住： to come through (something) safely</t>
+          <t>adj. 狡诈的，狡猾的： clever at attaining one's ends by indirect and often deceptive means</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>We haveve weathered worse crises, and so we'll survive this one.  更为严重的危机我们都闯过了，这个也不会有问题的。
-They weathered a terrible storm while at sea.   他们在海上平安渡过了一场巨大的风暴。</t>
+          <t>He is an experienced and wily old statesman.   他是一个经验丰富而狡诈的老销售员。
+His wily plan onlyrebounded on him.  聪明反被聪明误。</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3840,18 +3829,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>wily</t>
+          <t>arable</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>adj. 狡诈的，狡猾的： clever at attaining one's ends by indirect and often deceptive means</t>
+          <t>adj. 适合耕种的： fit for or used for the growing of crops</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>He is an experienced and wily old statesman.   他是一个经验丰富而狡诈的老销售员。
-His wily plan onlyrebounded on him.  聪明反被聪明误。</t>
+          <t>explore the west for arable land  向西探索适合耕种的土地</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3863,17 +3851,19 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>arable</t>
+          <t>convene</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>adj. 适合耕种的： fit for or used for the growing of crops</t>
+          <t>vt. 召开，召集： to bring together in assembly by or as if by command
+vi. 聚集，集合： to come together in a body</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>explore the west for arable land  向西探索适合耕种的土地</t>
+          <t>convened the members of the council for an emergency session  召集委员会的成员进入紧急议程
+The students convened in the auditorium to hear the principal’saddress.   学生们在大礼堂集合，聆听校长的致辞。</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3885,48 +3875,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>convene</t>
+          <t>decadent</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
-        <is>
-          <t>vt. 召开，召集： to bring together in assembly by or as if by command
-vi. 聚集，集合： to come together in a body</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>convened the members of the council for an emergency session  召集委员会的成员进入紧急议程
-The students convened in the auditorium to hear the principal’saddress.   学生们在大礼堂集合，聆听校长的致辞。</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>decadent</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
         <is>
           <t>adj. 堕落的，腐败的： having or showing lowered moral character or standards
 n. 放纵的人： a person whose life is devoted to luxury and sensual pleasures
 n. 道德上堕落的人： a person in a condition or process of mental or moral decay</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Opponents of gambling casinos claim that gambling is a decadent form of entertainment.   赌 场 的 反 对者们宣称赌博是一种堕落腐化的娱乐形式。
 a decadent who squandered her once considerable family fortune  一个挥霍了大量的家族财富的人
 avant-garde artists who were scorned by the bourgeoisie as talentless decadents  被中产阶级鄙视为没有才华的堕落者的前卫艺术家</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_10.xlsx
+++ b/result/生词本导入模版_10.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,46 +434,46 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>单词</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>含义（可不填）</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>例句（可不填）</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>veracious</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>adj. 诚实的，说实话的： being in the habit of telling the truth
 adj. 精确的，准确的： precise, accurate</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>a veracious witness  诚实的证人
 He has a reputation for being veracious, so people generally takehis word for things.  他诚实的名声让其他人通常都相信他说的话
 a novel that presents a fairly veracious and unvarnished picture of the lives of affluent suburbanites  一部准确而不加修饰地描述郊区富人生活的小说</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>verbatim</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>adv. 逐字地，一字不差地： in the exact words</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>You can't just copy the encyclopedia article verbatim for your report - that's plagiarism.   你 不 能 一 字 不 差地抄百科全书上的内容——这是剽窃。</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -471,42 +483,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>verbatim</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>adv. 逐字地，一字不差地： in the exact words</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>You can't just copy the encyclopedia article verbatim for your report - that's plagiarism.   你 不 能 一 字 不 差地抄百科全书上的内容——这是剽窃。</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>verbose</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>adj. 冗长的，啰嗦的： containing more words than necessary</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>a verbose orator  啰嗦的演讲者
 She has a verbose writing style.   她的文风很啰嗦。</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>verdant</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>adj. （因长满植物而）翠绿的，郁郁葱葱的： green with vegetation; covered with green growth</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>verdant fields  翠绿的田野</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -516,17 +528,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>verify</t>
+          <t>verdant</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vt. 校验，证实： to determine or test the truth or accuracy of, as by comparison, investigation, orreference</t>
+          <t>adj. （因长满植物而）翠绿的，郁郁葱葱的： green with vegetation; covered with green growth</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>We need to verify your passport.   我们需要校验阁下的护照。</t>
+          <t>verdant fields  翠绿的田野</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -538,17 +550,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>verisimilar</t>
+          <t>verify</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>adj. 似乎真实的： appearing to be true or real</t>
+          <t>vt. 校验，证实： to determine or test the truth or accuracy of, as by comparison, investigation, orreference</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>a verisimilar tale  一个似乎为真的传奇</t>
+          <t>We need to verify your passport.   我们需要校验阁下的护照。</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -560,17 +572,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>veritable</t>
+          <t>verisimilar</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>adj. 真正的，确实的： being in fact the thing named and not false, unreal, or imaginary</t>
+          <t>adj. 似乎真实的： appearing to be true or real</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>a veritable manuscript  一份原稿</t>
+          <t>a verisimilar tale  一个似乎为真的传奇</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -582,90 +594,90 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>veritable</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>adj. 真正的，确实的： being in fact the thing named and not false, unreal, or imaginary</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>a veritable manuscript  一份原稿</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>vernacular</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>n. 方言： a nonstandard language or dialect of a place, region, or country
 adj. 非正式的，口头的： used in or suitable for speech and not formal writing</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>phrases that occur in the common vernacular  常见方言中的词组
 writes essays in a very easy-to-read, vernacular style  用一种易懂的口头化风格写作</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>versatile</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>adj. 多才多艺的，全能的： able to do many different kinds of things
 adj. 易改变的： changing or fluctuating readily</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>We have found a versatile baseball player who can play any position.  我们发现了一个能打任何位置的全能型球员。
 a versatile disposition  多变的性格</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>verse</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>vt. 使精通，使熟悉： to familiarize by close association, study, or experience</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">well versed in the theater  精通剧院
 While in prison, he versed himself in the rights of the incarcerated.  </t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>vertigo</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>n. 眩晕： a dizzy confused state of mind</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>He had a dreadful attack of vertigo at the top of the tower.   他站在塔顶，感到一阵令人窒息的眩晕。</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -675,17 +687,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>verve</t>
+          <t>vertigo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>n. 活力，热情： vitality, liveliness</t>
+          <t>n. 眩晕： a dizzy confused state of mind</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>The instrumentalists played with skill and verve.  器乐表演者们有着高超的技巧与饱满的热情</t>
+          <t>He had a dreadful attack of vertigo at the top of the tower.   他站在塔顶，感到一阵令人窒息的眩晕。</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -697,62 +709,66 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>verve</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>n. 活力，热情： vitality, liveliness</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The instrumentalists played with skill and verve.  器乐表演者们有着高超的技巧与饱满的热情</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>vessel</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>n.管： a tube or canal (as an artery) in which a body fluid is contained and conveyed or circulated
 n. 船，舰艇： a watercraft bigger than a rowboat</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>blood vessel  血管
 the largest military vessel afloat  最大的军用舰艇</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>vestige</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>n. 微小的遗迹，小痕迹： the smallest quantity or trace</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>A few strange words carved on a stone were the only vestige of the lost civilization.  石 碑 上 刻 着 的 几个奇怪的字符是这个失落文明的唯一的遗迹。
 the fossilized vestige of a dinosaur that traversed that muddylandscape millions of years ago  千万年横跨那块泥泞土壤的恐龙的化石碎片</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>vestigial</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>adj. 退化的，发育不全的： (of certain organs or parts of organisms) having attained a simple structure</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -762,66 +778,62 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>vestigial</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adj. 退化的，发育不全的： (of certain organs or parts of organisms) having attained a simple structure</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>veteran</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>n. 老兵，有丰富经验的人： one having knowledge or ability gained through long experience
 adj. 经验丰富的，资深的： having or showing exceptional knowledge, experience, or skill in a fieldof endeavor</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>As a veteran of overseas travel, she offered us solid advice about planning our trip.  作 为 一 名 资 深 的旅行家，她给了我们提供了许多关于旅行规划的中肯建议。
 She is a veteran teacher who can mentor new teachers.  她的教师资历都老到可以教新教师了。</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>veto</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>n./vt. 否决，禁止： to forbid or prohibit authoritatively</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>The President vetoed the bill.  总统否决了提案。
 We wanted to do a cross-country trip, but our parentsvetoed it.  我们想来一次跨国旅行，但是父母不肯批准。</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>vex</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>vt. 使烦恼，使恼怒： to bring trouble, distress, or agitation to</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>vexed by her son's failure to clean his room  因为她儿子不清理房间而恼怒</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -831,17 +843,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>viable</t>
+          <t>vex</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>adj. 可行的： capable of being done or carried out</t>
+          <t>vt. 使烦恼，使恼怒： to bring trouble, distress, or agitation to</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>a viable solution to the problem  解决问题的一个可行方案</t>
+          <t>vexed by her son's failure to clean his room  因为她儿子不清理房间而恼怒</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -853,17 +865,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vicarious</t>
+          <t>viable</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>adj. 代理的，取代的： performed or suffered by one person as a substitute for another or to thebenefit or advantage of another</t>
+          <t>adj. 可行的： capable of being done or carried out</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>use Internet as a vicarious form of social life  把互联网当作一种虚拟的社交生活</t>
+          <t>a viable solution to the problem  解决问题的一个可行方案</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -875,43 +887,43 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>vicarious</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>adj. 代理的，取代的： performed or suffered by one person as a substitute for another or to thebenefit or advantage of another</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>use Internet as a vicarious form of social life  把互联网当作一种虚拟的社交生活</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>vicious</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>adj. 凶恶的，恶毒的： having or showing the desire to inflict severe pain and suffering on others
 adj. 猛烈的： marked by violence or ferocity</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>vicious slander  恶意的诽谤
 a vicious storm ripped through the region  在境内肆虐的强烈风暴</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>vicissitude</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>n. 自然变化： natural change or mutation visible in nature or in human affairs</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>vicissitude of daily life  日常生活的跌宕起伏</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -921,17 +933,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>victimize</t>
+          <t>vicissitude</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>vt. 使受骗： to subject to deception or fraud</t>
+          <t>n. 自然变化： natural change or mutation visible in nature or in human affairs</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>victimized by a confidence man with a slick story  被一个骗子用圆滑的故事欺骗</t>
+          <t>vicissitude of daily life  日常生活的跌宕起伏</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -943,42 +955,42 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>victimize</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>vt. 使受骗： to subject to deception or fraud</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>victimized by a confidence man with a slick story  被一个骗子用圆滑的故事欺骗</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>vigilant</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>adj. 警醒的，警惕的： alertly watchful especially to avoid danger</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Police warned the public to be vigilant and report anything suspicious.  警方要求公众保持警惕，并上报任何有嫌疑的人或事。
 When traveling through the city, tourists should be extra vigilant.   在这个城市旅行的游客应该保持格外的警惕。</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>vignette</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>n. 简介短文： a vivid representation in words of someone or something</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>The general's memoirs are filled with revealing vignettes of some of the war’s most compellingpersonalities.   将军的回忆录里充满了短小的文章，它们揭露了战争中最引人注意的人物。</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -988,43 +1000,43 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>vignette</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>n. 简介短文： a vivid representation in words of someone or something</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>The general's memoirs are filled with revealing vignettes of some of the war’s most compellingpersonalities.   将军的回忆录里充满了短小的文章，它们揭露了战争中最引人注意的人物。</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>vigorous</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>adj. 精力旺盛的： having active strength of body or mind
 adj. 强健的： able to withstand hardship, strain, or exposure</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>He remains vigorous despite being over 80 years old.   尽管他已 80 高龄，但仍活力不减
 vigorous and sturdy little sheep bred to live in mountainous regions  在山区喂养的健壮的小羊</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>vilify</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>vt. 诽谤，辱骂： to utter slanderous and abusive statements against</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>be vilified by the press because of her radical views  因为她激进的观点而被媒体抨击</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1034,17 +1046,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vim</t>
+          <t>vilify</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>n. 活力，精力： robust energy and enthusiasm</t>
+          <t>vt. 诽谤，辱骂： to utter slanderous and abusive statements against</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A little rest should give me back some of my vim.   稍事休息一会我应该就能回复些许精力</t>
+          <t>be vilified by the press because of her radical views  因为她激进的观点而被媒体抨击</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1056,43 +1068,43 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>vim</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>n. 活力，精力： robust energy and enthusiasm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A little rest should give me back some of my vim.   稍事休息一会我应该就能回复些许精力</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>vindicate</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>vt. 为…平反，为…辩护，使无罪： to free from allegation or blame
 vt. 证明，证实：to give evidence or testimony to the truth or factualness of</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>The evidence would completely vindicate him.   这个证据将彻底证明他的清白。
 Recent discoveries have generally vindicated the physicist's theories.  近期的发现整体上证明了物理学家的理论。</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>vindictive</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>adj. 复仇的（有寻仇倾向的）： disposed to seek revenge</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>vindictive hatred for his brother  对他兄弟的仇恨</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1102,90 +1114,90 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>vindictive</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>adj. 复仇的（有寻仇倾向的）： disposed to seek revenge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vindictive hatred for his brother  对他兄弟的仇恨</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>virtuoso</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>n. 艺术鉴赏家，专家： a person with masterly skill or technique in the arts
 adj. 经验丰富的，技艺精湛的： having or showing exceptional knowledge, experience, or skill in afield of endeavor</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>a violin virtuoso  资深小提琴艺术家
 The American virtuoso cellist Lynn Harrell joins the orchestra as soloist in Shostakovich’s technicallychallenging Cello Concerto No 2.  来自美国的技艺精湛的大提琴家林恩·哈雷尔作为独奏者加入了乐队，共同演绎肖斯塔科维奇充满挑战的《第二大提琴协奏曲》。</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>virtuous</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>adj. 品德高尚的，正直的： having or showing virtue, especially moral excellence</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Virtuous behavior is its own reward.   美德本身就是一种回报。
 She felt that she had made a virtuousdecision by donating the money to charity.  她觉得把钱捐赠给慈善基金是一个高尚的决定。</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>virulent</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>adj. 有毒的： extremely poisonous or venomous
 adj. 凶残的： marked by a rapid, severe, and destructive course</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>virulent bacteria  有毒的细菌
 a virulent look on her face  面露凶色</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>viscid</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>adj. 有粘性的： having a glutinous consistency</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>viscid tree resin  粘性的树脂</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1195,17 +1207,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>viscous</t>
+          <t>viscid</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>adj. 粘稠的，粘的： viscid; sticky</t>
+          <t>adj. 有粘性的： having a glutinous consistency</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>viscous syrup that takes forever to pour from a narrow-neck bottle  不知要花多久才能从窄口瓶中倒出来的粘稠糖浆</t>
+          <t>viscid tree resin  粘性的树脂</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1217,45 +1229,45 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>viscous</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>adj. 粘稠的，粘的： viscid; sticky</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>viscous syrup that takes forever to pour from a narrow-neck bottle  不知要花多久才能从窄口瓶中倒出来的粘稠糖浆</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>visionary</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>adj. 空想的，不切实际的： having or marked by a tendency to be guided more by ideals than by reality
 adj. 幻觉的： not real and existing only in the imagination
 adj. 有远见的： having or marked by foresight and imagination</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>a visionary plan for a manned flight to Mars  一个构想中的载人火星计划
 claimed to have had visionary experiences of hell  宣称有过到达地狱的幻觉
 a visionary and legendary leader  一个有远见的传奇性领袖</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>vitality</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>n. 活力，生命力： physical or mental vigor especially when highly developed</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Her vitality seemed to spread to everyone around her.   她的活力似乎能影响身边的每一个人</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1265,43 +1277,43 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>vitality</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>n. 活力，生命力： physical or mental vigor especially when highly developed</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Her vitality seemed to spread to everyone around her.   她的活力似乎能影响身边的每一个人</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>vitiate</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>v. 削弱，损害： to reduce the value or impair the quality of
 v. （在道德、审美上）降低，堕落： to debase in moral or aesthetic status</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Too many grammatical errors can vitiate the soundness of your writing, so double-check is recommendedbefore submission.  太多的语法错误会削弱你论证的力度，所以强烈建议交稿前检查几遍。
 Penchant for coarse language vitiates what is otherwise a refined literary style.  使 用 粗 俗语 言 的倾 向使得本该是一个高雅的文体变得不堪入目。</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>vitriolic</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>adj. （言辞）刻薄的： bitterly scathing</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>vitriolic criticism  刻薄的批评</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1311,17 +1323,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>vituperate</t>
+          <t>vitriolic</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>vt. 谩骂，责骂： to abuse or censure severely or abusively</t>
+          <t>adj. （言辞）刻薄的： bitterly scathing</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>was vituperated for betraying his friends  因为背叛他的朋友而被责骂</t>
+          <t>vitriolic criticism  刻薄的批评</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1333,17 +1345,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>vivacious</t>
+          <t>vituperate</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>adj. 活泼的，快活的： lively in temper, conduct, or spirit</t>
+          <t>vt. 谩骂，责骂： to abuse or censure severely or abusively</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>a vivacious girl who became a successful sales rep  一个成为了成功销售代表的活泼女孩</t>
+          <t>was vituperated for betraying his friends  因为背叛他的朋友而被责骂</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1355,17 +1367,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>vociferous</t>
+          <t>vivacious</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>adj. 喧哗的，大叫大嚷的： making, given to, or marked by noisy and vehement outcry</t>
+          <t>adj. 活泼的，快活的： lively in temper, conduct, or spirit</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Vociferous opponents of the bill protested angrily outside the Congress.   议案的反对者在国会外愤怒地举行了声势浩大的抗议活动</t>
+          <t>a vivacious girl who became a successful sales rep  一个成为了成功销售代表的活泼女孩</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1377,42 +1389,42 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>vociferous</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>adj. 喧哗的，大叫大嚷的： making, given to, or marked by noisy and vehement outcry</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Vociferous opponents of the bill protested angrily outside the Congress.   议案的反对者在国会外愤怒地举行了声势浩大的抗议活动</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>volatile</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>adj. 多变的： characterized by or subject to rapid or unexpected change</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>a boss of volatile moods  一个性情多变的老板
 The stock market can be very volatile.   股 市 瞬 息 万变。</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>volition</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>n. 意志，自愿选择的行为： the act or power of making one's own choices or decisions</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>beyond his volition or control  超出了他的意志和控制范围</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1422,17 +1434,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>voluble</t>
+          <t>volition</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>adj. 健谈的，话多的： characterized by ready or rapid speech</t>
+          <t>n. 意志，自愿选择的行为： the act or power of making one's own choices or decisions</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>The voluble gadfly ruined the party.   聚会被那个话又多又让人讨厌的人破坏了。</t>
+          <t>beyond his volition or control  超出了他的意志和控制范围</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1444,17 +1456,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>voluminous</t>
+          <t>voluble</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>adj. 卷数多的，大量的，庞大的： having great volume, fullness, size, or number</t>
+          <t>adj. 健谈的，话多的： characterized by ready or rapid speech</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>trying to keep a track of voluminous academic database  尝试追踪数目庞大的学术数据库</t>
+          <t>The voluble gadfly ruined the party.   聚会被那个话又多又让人讨厌的人破坏了。</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1466,17 +1478,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>voluptuous</t>
+          <t>voluminous</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>adj. 奢侈逸乐的，沉溺酒色的： given to or spent in enjoyments of luxury, pleasure, or sensualgratifications</t>
+          <t>adj. 卷数多的，大量的，庞大的： having great volume, fullness, size, or number</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>They spent a long and voluptuous holiday in Venice.  他们在威尼斯度过了一个漫长而奢华的假期。</t>
+          <t>trying to keep a track of voluminous academic database  尝试追踪数目庞大的学术数据库</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1488,43 +1500,43 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>voluptuous</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>adj. 奢侈逸乐的，沉溺酒色的： given to or spent in enjoyments of luxury, pleasure, or sensualgratifications</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>They spent a long and voluptuous holiday in Venice.  他们在威尼斯度过了一个漫长而奢华的假期。</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>voracious</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>adj. 有很大食量的，贪吃的： having a huge appetite
 adj. 贪婪的，如饥似渴的： having or marked by an insatiable appetite for an activity or pursuit</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>He has a voracious appetite.  他的食量惊人。
 a voracious reader who locked himself up in the study  一个把自己锁在书房的贪婪的读者</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>votary</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>n. 崇拜者，信徒： a person who is fervently devoted, as to a leader or ideal; a faithful follower</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>votaries of the religious leader  宗教领袖的追随者们</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1534,17 +1546,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>vouch</t>
+          <t>votary</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>vi. 担保，声称为真： to declare (something) to be true or genuine; to give a guarantee</t>
+          <t>n. 崇拜者，信徒： a person who is fervently devoted, as to a leader or ideal; a faithful follower</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>willing to vouch for her integrity  愿意担保她的人格</t>
+          <t>votaries of the religious leader  宗教领袖的追随者们</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1556,66 +1568,66 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>vouch</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>vi. 担保，声称为真： to declare (something) to be true or genuine; to give a guarantee</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>willing to vouch for her integrity  愿意担保她的人格</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>vulgar</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>adj. 粗俗的，无教养的： morally crude, undeveloped, or unregenerate
 adj. 口头的，非正式的： used in or suitable for speech and not formal writing</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">He is a vulgar man but his music is quite divine.  虽然他是一个粗俗的人，但他的音乐却十分神圣。
 Latin was once the language of scholars, and English the vulgar language used by the common people.  </t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>vulnerable</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>adj. 易受攻击的，脆弱的： open to attack or damage</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>The troops were deployed in a vulnerable position.   部队被部署在了一个容易遭受攻击的位置。
 The fortwas undefended and vulnerable.  堡垒没有设防，十分脆弱。</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>waddle</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>vi. 摇摇摆摆地走： to walk with short steps that tilt the body from side to side</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>The duck waddled back into the water.  鸭子一摇一摆地回到了水中</t>
-        </is>
-      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1625,17 +1637,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>waffle</t>
+          <t>waddle</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>vi. 胡扯： to talk or write foolishly</t>
+          <t>vi. 摇摇摆摆地走： to walk with short steps that tilt the body from side to side</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>This lecturer will waffle on for hours.   这个老师会胡说八道地扯几个小时。</t>
+          <t>The duck waddled back into the water.  鸭子一摇一摆地回到了水中</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1647,66 +1659,66 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>waffle</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>vi. 胡扯： to talk or write foolishly</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>This lecturer will waffle on for hours.   这个老师会胡说八道地扯几个小时。</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>waft</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>vt. 飘荡，漂浮： to float easily and gently, as on the air</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Heavenly aromas wafted from the kitchen.  令人欣悦的香气从厨房飘出。
 A feather wafted past usand settled on the grass.   一片羽毛飘过我们身边，落在草地上。</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>wag</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>n. 幽默诙谐的人： a humorous or droll person
 vt. 摆动： to move to and fro or up and down especially with quick jerky motions</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Some wag wrote a droll satire on the scandal.   一些有才的人就丑闻写了一个搞怪的讽刺。
 The dog wagged its tail.  狗摆动着它的尾巴。</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>wan</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>adj. 苍白的，病态的： suggestive of poor health</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>She looks a little wan after all that tiring work.   在完成那些繁重的工作之后她看起来有些虚弱。</t>
-        </is>
-      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1716,17 +1728,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>wanderlust</t>
+          <t>wan</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>n. 旅行癖： a very strong or irresistible impulse to travel</t>
+          <t>adj. 苍白的，病态的： suggestive of poor health</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>His wanderlust would not allow him to stay long in one spot.   他对旅行的渴望让他不可能在一处久待。</t>
+          <t>She looks a little wan after all that tiring work.   在完成那些繁重的工作之后她看起来有些虚弱。</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1738,67 +1750,67 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>wanderlust</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>n. 旅行癖： a very strong or irresistible impulse to travel</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>His wanderlust would not allow him to stay long in one spot.   他对旅行的渴望让他不可能在一处久待。</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>wane</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>vi. 减少，衰退，降低： to decrease in size, extent, or degree</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">In the evening the storm finally waned.  傍晚时分风暴终于减弱了。
 The moon waxes and then wanes.  </t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>want</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>n. 短缺： the condition or quality of lacking something usual or necessary
 vt. 渴望： to have a strong desire for</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>There's a notable want of teachers in rural areas.   农村地区存在着值得注意的师资短缺问题
 I want a new car so badly! 我太想要一辆新车了！
 She wanted more time to finish the test.  她 希 望能有更多的时间来完成考试。</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>warmonger</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>n. 好战者： one who urges or attempts to stir up war</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Fortunately, the warmongers met with overwhelming opposition.   幸运的是，好战者们碰到了巨大的阻力。</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1808,11 +1820,19 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>warp</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+          <t>warmonger</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>n. 好战者： one who urges or attempts to stir up war</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Fortunately, the warmongers met with overwhelming opposition.   幸运的是，好战者们碰到了巨大的阻力。</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1822,43 +1842,35 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>warp</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
           <t>warrant</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>vt. 承诺： to assume responsibility for the satisfactory quality or performance of
 vt. 批准，认可： to give official acceptance of as satisfactory</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>The computer company unconditionally warrants all of its products for one full year.  这 个 电 脑 公 司 对所有的产品提供为期一年的质量保证。
 The law warrants these measures.   法律允许这些措施。</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>wary</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>adj. 小心的，机警的，谨慎的： marked by keen caution, cunning, and watchfulness</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>kept a wary eye out for signs of the enemy  对敌人出现的征兆保持警惕</t>
-        </is>
-      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1868,17 +1880,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>wastrel</t>
+          <t>wary</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>n. 肆意挥霍的人，败家子： one who expends resources foolishly and self-indulgently</t>
+          <t>adj. 小心的，机警的，谨慎的： marked by keen caution, cunning, and watchfulness</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>He ended up being a wastrel and a drunkard.   他最后成了一个花天酒地的败家子。</t>
+          <t>kept a wary eye out for signs of the enemy  对敌人出现的征兆保持警惕</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1890,17 +1902,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>watershed</t>
+          <t>wastrel</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>n. 重要关头，分水岭： a crucial dividing point: turning point</t>
+          <t>n. 肆意挥霍的人，败家子： one who expends resources foolishly and self-indulgently</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>a watershed moment in her life  她命运的分水岭</t>
+          <t>He ended up being a wastrel and a drunkard.   他最后成了一个花天酒地的败家子。</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1912,107 +1924,107 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>watershed</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>n. 重要关头，分水岭： a crucial dividing point: turning point</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>a watershed moment in her life  她命运的分水岭</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>wax</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>vi. 月亮渐满： to increase in phase or intensity, used chiefly of the moon, other satellites, and inferiorplanets
 vt. 用蜡涂、处理或上光： to coat (something) with a slippery substance in order to reduce friction</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>waylay</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>vt. 埋伏，伏击： to lie in wait for or attack from ambush</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Unsuspecting tourists are often waylaid by gangs.   不警惕的旅客们常常被犯罪团伙偷袭。
 We werewaylaid by a group of protestors with rocks.   我们被一群示威者用石头偷袭了。</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>welter</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>n. 混乱；动乱： a state of wild disorder</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>There was a welter of pushing and shoving.   到处是推搡和拥挤的混乱局面。
 The troop withdrawalwould plunge the country into a welter of anarchy and endless civil war.   撤军会使得这个国家陷入无政府的动乱和无尽的内战中。</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>wheedle</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>vt. （用花言巧语）诱惑，哄骗： to persuade or attempt to persuade by flattery or guile</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>wheedled him into working for them  哄骗他为他们工作
 She pleaded and wheedled, but I wouldn't beswayed.   她软磨硬泡地求我，但我仍不动摇。</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>whet</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>vt. 磨快： to sharpen by rubbing on or with something (as a stone)</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>whetted the dagger with the grindstone  用磨石把匕首磨锋利</t>
-        </is>
-      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2022,44 +2034,44 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>whet</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>vt. 磨快： to sharpen by rubbing on or with something (as a stone)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>whetted the dagger with the grindstone  用磨石把匕首磨锋利</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>whiff</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>n. 微风： a quick puff or slight gust especially of air, odor, gas, smoke, or spray
 n. 细微的信号，略微痕迹： an almost imperceptible sign of something</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>A whiff of fresh air reinvigorated him.   一股清新的空气让他恢复了活力。
 Even a whiff of appreciation for everything I've done for her would have been nice.   她哪怕是对我为她的付出流露出一丁点的感激之情也好啊。
 Humanity is unregenerable and hates the language of conformity, sinceconformity has a whiff of the inhuman about it.   (Anthony Burgess) 人性是不能改造也无发统一的，因为一致性本身带有一点点不人道的意味。（安东尼•伯吉斯）</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>whimsical</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>adj. 反复无常的： prone to sudden illogical changes of mind, ideas, or actions</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>It’s hard to make plans with such a whimsical friend.  和这样一个反复无常的朋友做决定是很困难的。</t>
-        </is>
-      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2069,17 +2081,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>wholesome</t>
+          <t>whimsical</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>adj. 有益身心健康的： promoting mental, moral, or social health</t>
+          <t>adj. 反复无常的： prone to sudden illogical changes of mind, ideas, or actions</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>trying to eat a more wholesome diet  尽可能有更健康的饮食习惯</t>
+          <t>It’s hard to make plans with such a whimsical friend.  和这样一个反复无常的朋友做决定是很困难的。</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2091,17 +2103,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>wicked</t>
+          <t>wholesome</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>adj. 邪恶的： morally very bad</t>
+          <t>adj. 有益身心健康的： promoting mental, moral, or social health</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>a wicked urge to steal just for the sake of stealing  纯粹为了偷盗而偷盗的邪恶冲动</t>
+          <t>trying to eat a more wholesome diet  尽可能有更健康的饮食习惯</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2113,17 +2125,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>wince</t>
+          <t>wicked</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>vi. 畏缩： to shrink back involuntarily as from pain</t>
+          <t>adj. 邪恶的： morally very bad</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>winced at the horrible corpses  在令人恐惧的尸体面前畏缩</t>
+          <t>a wicked urge to steal just for the sake of stealing  纯粹为了偷盗而偷盗的邪恶冲动</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2135,17 +2147,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>windbag</t>
+          <t>wince</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>n. 健谈的人： an exhaustively talkative person</t>
+          <t>vi. 畏缩： to shrink back involuntarily as from pain</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>With a windbag like that, who needs a wind farm to meet our energy needs? 有了他这样一个多话的“吹风机”，谁还要风力发电厂来满足电力需求呢？</t>
+          <t>winced at the horrible corpses  在令人恐惧的尸体面前畏缩</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2157,15 +2169,19 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>windy</t>
+          <t>windbag</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>adj. 冗长的： characterized by wearisome verbosity</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
+          <t>n. 健谈的人： an exhaustively talkative person</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>With a windbag like that, who needs a wind farm to meet our energy needs? 有了他这样一个多话的“吹风机”，谁还要风力发电厂来满足电力需求呢？</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2175,19 +2191,15 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>winsome</t>
+          <t>windy</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>adj. 迷人的，漂亮的： generally pleasing and engaging often because of a childlike charm andinnocence</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>fascinated by her winsome smile  为她动人一笑所倾倒</t>
-        </is>
-      </c>
+          <t>adj. 冗长的： characterized by wearisome verbosity</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2197,43 +2209,43 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>winsome</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>adj. 迷人的，漂亮的： generally pleasing and engaging often because of a childlike charm andinnocence</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>fascinated by her winsome smile  为她动人一笑所倾倒</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
           <t>wit</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>n. 机智，智慧： the natural ability to perceive and understand
 n. 智者，有智慧的人： a person of exceptional intelligence</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>lacked the wit to judge  缺乏判断的智慧
 a man who fancied himself as a great wit  一个把自己想象成智慧的化身的男子</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>withdraw</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>vi. 撤退： to take back or away</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>The army was forced to withdraw from the frontline.  部队被迫从前线撤回</t>
-        </is>
-      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2243,17 +2255,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>wither</t>
+          <t>withdraw</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>vi. 枯萎，凋谢： to become dry and sapless</t>
+          <t>vi. 撤退： to take back or away</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Amaranth is a legendary flower that never withers.   传说中的 Amaranth  是一种永不凋谢的花。</t>
+          <t>The army was forced to withdraw from the frontline.  部队被迫从前线撤回</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2265,17 +2277,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>withhold</t>
+          <t>wither</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>vt. 扣压，不给予： to refrain from granting, giving, or allowing</t>
+          <t>vi. 枯萎，凋谢： to become dry and sapless</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>withhold sensitive information  限制敏感信息的传播</t>
+          <t>Amaranth is a legendary flower that never withers.   传说中的 Amaranth  是一种永不凋谢的花。</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2287,178 +2299,182 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>withhold</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>vt. 扣压，不给予： to refrain from granting, giving, or allowing</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>withhold sensitive information  限制敏感信息的传播</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>wizen</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>vt. （使）凋谢，（使）枯萎： to become dry, shrunken, and wrinkled often as a result of aging or offailing vitality
 adj. 凋谢的, 枯萎的： shriveled or dried up</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>wobble</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>vi. 摇晃，颤抖： to move or proceed with an irregular rocking or staggering motion or unsteadily andclumsily from side to side
 vi. 犹豫不决： to show uncertainty about the right course of action</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>The drunk stood up, wobbled for a moment, and fell forward.  醉汉站了起来，晃动了一阵，然后向前倒了下去。
 We cannot tolerate the government wobbling at this critical time.   我们不能容忍政府在这种关键时刻犹豫不决。</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>worldly</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>adj. 世间的，世俗的： of this world rather than spiritual or religion affairs
 adj. 老练的： experienced in human affairs</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>preoccupied with worldly concerns  纠缠于世俗的忧虑
 It is time you woke up and focused yourthoughts on more worldly matters.   现在你应该停止做梦然后把自己的精力集中在更现实的问题上了。
 My little sister was worldly and sophisticated, quite unlike me.  与我截然不同的是，我的妹妹在为人处世方面非常老练。</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>worship</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>n. 崇拜，敬仰： extravagant respect to an object of esteem
 v. 崇拜，膜拜： to offer honor or respect to (someone) as a divine power</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>the belief in swords and the worship of force  刀剑信仰与武力崇拜
 The ancient Greeks worshipped many different gods.   古希腊人崇拜不同的神明。</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>wrangle</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>n. 纷争，争端： an often noisy or angry expression of differing opinions
 vi. 争吵： to quarrel noisily or angrily</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>There was a bit of a wrangle over how much money to give the high school for its sports programs.   这个高中应该获得多少体育项目的拨款引起了一阵纷争。
 Local residents wrangled for hours about property taxes.  当地居民就房产税的问题争吵不休。</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>wretched</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>adj. 极差的： very poor in quality or ability
 adj. 沮丧的： deeply afflicted, dejected, or distressed in body or mind</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>the wretched conditions of the refugee camp  难民营极恶劣的条件
 She was wretched for weeks after breaking up with her boyfriend.  她与男友分手后郁闷了几个星期。</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>wry</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>adj. 扭曲的： abnormally twisted or bent to one side
 adj. 坚持错误的： stubborn in adherence to wrong opinion or principles</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>a wry smile  扭曲的笑容</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>xenophobe</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>n. 仇视（或畏惧）外国人（或外国事物）者： one unduly fearful of what is foreign and especially ofpeople of foreign origin</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2468,19 +2484,15 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>yoke</t>
+          <t>xenophobe</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>v. 连接： to become joined or linked</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>yoked several ideas together to propose a novel theory  将几个想法结合起来提出一个全新的理论</t>
-        </is>
-      </c>
+          <t>n. 仇视（或畏惧）外国人（或外国事物）者： one unduly fearful of what is foreign and especially ofpeople of foreign origin</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2490,17 +2502,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>yokel</t>
+          <t>yoke</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>n. 乡下人，天真纯朴的人： a naive or gullible inhabitant of a rural areaor small town</t>
+          <t>v. 连接： to become joined or linked</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>a lame comedy about the misadventures of yokels in the big city  描述乡下人在大都市中遭遇的不幸的劣质喜剧</t>
+          <t>yoked several ideas together to propose a novel theory  将几个想法结合起来提出一个全新的理论</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2512,17 +2524,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>zeal</t>
+          <t>yokel</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>n. 热心，热诚： enthusiastic devotion to a cause, ideal, or goal and tireless diligence in itsfurtherance</t>
+          <t>n. 乡下人，天真纯朴的人： a naive or gullible inhabitant of a rural areaor small town</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>preaches with fanatical zeal  带着狂热进行传教</t>
+          <t>a lame comedy about the misadventures of yokels in the big city  描述乡下人在大都市中遭遇的不幸的劣质喜剧</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2534,17 +2546,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>zealot</t>
+          <t>zeal</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>n. 狂热者： a zealous person; especially: a fanatical partisan</t>
+          <t>n. 热心，热诚： enthusiastic devotion to a cause, ideal, or goal and tireless diligence in itsfurtherance</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>a religious zealot calling for another Crusade  呼唤下一场十字军东征的宗教狂热者</t>
+          <t>preaches with fanatical zeal  带着狂热进行传教</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2556,17 +2568,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>zenith</t>
+          <t>zealot</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>n. 最高点，巅峰： culminating point</t>
+          <t>n. 狂热者： a zealous person; especially: a fanatical partisan</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>at the zenith of his power  位极人臣</t>
+          <t>a religious zealot calling for another Crusade  呼唤下一场十字军东征的宗教狂热者</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2578,17 +2590,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>zesty</t>
+          <t>zenith</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>adj. 刺激的，开胃的： appealingly piquant or lively</t>
+          <t>n. 最高点，巅峰： culminating point</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>a zesty sauce  味道刺激的酱汁</t>
+          <t>at the zenith of his power  位极人臣</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2600,42 +2612,42 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>zesty</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>adj. 刺激的，开胃的： appealingly piquant or lively</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>a zesty sauce  味道刺激的酱汁</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
           <t>ravenous</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>adj. 食量大的，贪食的： having a huge appetite</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>He had moderated his ravenous appetite.   他克制了自己的食欲。
 ravenous for power  渴望权力</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>simile</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>n. 明喻： a figure of speech comparing two unlike things that is often introduced by like or as</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Even though both similes and metaphors are forms of comparison, similes indirectly compare the two ideasand allow them to remain distinct in spite of their similarities, whereas metaphors compare two things directly.   Forinstance, a simile that compares a person with a bullet would go as follows: "Chris was a record-setting runner asfast as a speeding bullet.  " A metaphor might read something like, "When Chris ran, he was a speeding bulletracing along the track.  "尽管明喻和暗喻都是比喻的手法，明喻会间接地对两个对象进行比较，同时允许差异的存在，而暗喻则直接对两者进行比较。比如说，用明喻来把一个人比作子弹会这样说：“克里斯是一个不断打破记录的选手，他跑得就和高速子弹一样快。”而暗喻可能会说：“当克里斯奔跑的时候，他就是一颗在赛场上高速飞行的子弹。”</t>
-        </is>
-      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2645,37 +2657,45 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
+          <t>simile</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>n. 明喻： a figure of speech comparing two unlike things that is often introduced by like or as</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Even though both similes and metaphors are forms of comparison, similes indirectly compare the two ideasand allow them to remain distinct in spite of their similarities, whereas metaphors compare two things directly.   Forinstance, a simile that compares a person with a bullet would go as follows: "Chris was a record-setting runner asfast as a speeding bullet.  " A metaphor might read something like, "When Chris ran, he was a speeding bulletracing along the track.  "尽管明喻和暗喻都是比喻的手法，明喻会间接地对两个对象进行比较，同时允许差异的存在，而暗喻则直接对两者进行比较。比如说，用明喻来把一个人比作子弹会这样说：“克里斯是一个不断打破记录的选手，他跑得就和高速子弹一样快。”而暗喻可能会说：“当克里斯奔跑的时候，他就是一颗在赛场上高速飞行的子弹。”</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
           <t>shift</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>vt. 改变…的位置： to change the place or position of
 vi. 改变，变化： to pass from one form, state, or level to another
 vt. 交换： to give up (something) and take something else in return</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>She shifted the vase closer to the wall so that it wouldn't get knocked over.  她把花瓶靠墙挪动了一点，从而防止它被碰倒。
 She watched the aurora in fascination as its colors shifted from green to blue.   她着迷地看着极光的色彩从绿变成蓝。
 My father and I shifted seats just before takeoff so that I could sit by the window.   起飞前我和我父亲交换了座位，这样我就可以靠窗坐了。</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>damn</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2685,67 +2705,59 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>damn</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
           <t>nirvana</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>n. 彻底放松的状态： a state of being disregardful or unconscious of one's surroundings, concerns,or obligations
 n. 天堂，极乐世界： an often imaginary place or state of utter perfection and happiness</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">The spa experience was a week of pure nirvana.   去泡温泉水疗的经历真是彻底的放松。
 They believe in a continuous cycle of births and deaths until the soul is perfected and achieves nirvana.  </t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>nourish</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>vt. 养育，抚养： to provide with food or other substances necessary for life and growth
 vt. 培养，促进： to help the growth or development of</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>He willingly nourished a child that was not his own.   他主动地抚养了一名不是他亲生的孩子。
 a friendship nourished by trust  在信任的基础之上开出的友谊之花</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>plodder</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>n. 行走缓慢的人： someone who moves slowly or more slowly than others</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>The guide halted the tour group so that the plodders who had fallen behind could catch up.   导 游 让 队 伍停下来，以便那些落在后头的行动缓慢的人可以跟上。</t>
-        </is>
-      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2755,69 +2767,69 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>plodder</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>n. 行走缓慢的人： someone who moves slowly or more slowly than others</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>The guide halted the tour group so that the plodders who had fallen behind could catch up.   导 游 让 队 伍停下来，以便那些落在后头的行动缓慢的人可以跟上。</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
           <t>misapprehension</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>n. 错误的理解： a failure to understand correctly
 n. 错误的判断： a wrong judgement</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>tried to eliminate all misapprehensions about the planned riverfront development  尽可能消除所有关于河流沿岸发展计划的误解
 a common misapprehension about how our language functions  有关我们的语言如何运作的常见误判</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>ferocious</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>adj. 极端的，剧烈的： marked by unrelenting intensity
 adj. 激烈的，爆发性的： marked by bursts of destructive force or intense activity
 adj. 凶猛的，残暴的： violently unfriendly or aggressive in disposition</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Ferocious heat wave kept people indoor.   剧烈的热浪使人不能出门。
 Ferocious forest fires threatened to destroy hundreds of homes in the scrubland.   肆虐的森林大火威胁着灌木丛中数百户居民的住所。
 captured and slaughtered by the ferocious tribesmen  被残暴的部落居民所抓获并惨遭屠杀</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>affix</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>vt. 粘合： to attach physically</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>affix a stamp to a letter  把邮票贴在信封上</t>
-        </is>
-      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2827,17 +2839,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>asymmetry</t>
+          <t>affix</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>n. 不对称，不平衡： lack of balance or symmetry</t>
+          <t>vt. 粘合： to attach physically</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>functional asymmetry of cerebral hemispheres  大脑两半球功能不对称性</t>
+          <t>affix a stamp to a letter  把邮票贴在信封上</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2849,17 +2861,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>equilibrium</t>
+          <t>asymmetry</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>n. 均势，平衡： a condition in which opposing forces are equal to one another</t>
+          <t>n. 不对称，不平衡： lack of balance or symmetry</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve">We must find an equilibrium between commercial development and conservation of our natural treasures.  </t>
+          <t>functional asymmetry of cerebral hemispheres  大脑两半球功能不对称性</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2871,68 +2883,68 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
+          <t>equilibrium</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>n. 均势，平衡： a condition in which opposing forces are equal to one another</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We must find an equilibrium between commercial development and conservation of our natural treasures.  </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
           <t>delegate</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>n. 代理人，代表： a person authorized to act as representative for another
 vt. 移交（权力，任务等）： to put (something) into the possession or safekeeping of another</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>The real estate developer sent a delegate to the town meeting to represent his interests.  房 地 产 开 发商派了一名能代表自己利益的代理前往镇上开会。
 the U.  N.   delegates from African countries  非 洲 国 家 的 驻 联合国代表
 The manager is reluctant to delegate authority to subordinates while abroad.   经理不愿意在国外期间将自己的权力转交给下级。</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>pious</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>adj. （信仰上）虔诚的： marked by or showing reverence for deity and devotion to divine worship
 adj. 忠诚的： firm in one's allegiance to someone or something</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>a pious woman who decided to become a nun  一个决心成为修女的虔诚女子
 a pious supporter of his school's athletic teams, during winning and losing seasons alike  学 校 体 育 队的忠诚支持者，不论他们是输或赢</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>hierarchical</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>adj. 分等级的，等级制的： classified according to various criteria into successive levels or layers</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>the traditional hierarchical system of military organization  军队中传统的等级制度</t>
-        </is>
-      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2942,63 +2954,63 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
+          <t>hierarchical</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>adj. 分等级的，等级制的： classified according to various criteria into successive levels or layers</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>the traditional hierarchical system of military organization  军队中传统的等级制度</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
           <t>obsolete</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>adj. 过时的，被淘汰的： no longer in use or no longer useful</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>I was told my old printer is obsolete and I can't get replacement parts.  我被告知我的打印机已经被淘汰了，因此无法更换配件。
 an obsolete word  一个已经废弃不用的单词</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>peel</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>vt. 剥去： to strip off an outer layer of
 vi. 脱去（衣服等）： to take off one's clothes</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>She can peel apples with lightning speed.   她能以飞快的速度削苹果。</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>wiretap</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>n./vt. 偷听，窃听： to tap a telephone or telegraph wire in order to get information</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>This line is not clean asCIAmight have wiretapped it.   这根线路不安全，因为中情局可能已经在监听了。</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3010,17 +3022,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>surveillance</t>
+          <t>wiretap</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>n. 监视，监控： close observation of a person or group, especially one under suspicion</t>
+          <t>n./vt. 偷听，窃听： to tap a telephone or telegraph wire in order to get information</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>government surveillance of suspected terrorists  政府对于恐怖分子嫌疑人的监控</t>
+          <t>This line is not clean asCIAmight have wiretapped it.   这根线路不安全，因为中情局可能已经在监听了。</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3032,43 +3044,43 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
+          <t>surveillance</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>n. 监视，监控： close observation of a person or group, especially one under suspicion</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>government surveillance of suspected terrorists  政府对于恐怖分子嫌疑人的监控</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
           <t>perceptive</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>adj. 敏锐的： able to sense slight impressions or differences
 adj. 洞察力强的： having or showing deep understanding and intelligent application of knowledge</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Due to their ability to rotate their ears, cats are very perceptive when it comes to pinpointing the source ofa sound.   由于猫能够转动它们的耳朵，所以它们能十分敏锐地确定声源的位置。
 A perceptive teacher was able to discover what was really troubling the youth.   一个洞察力强的老师应该能察觉真正困扰青少年是什么。</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>renege</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>vt. 放弃，摒弃： to solemnly or formally reject or go back on (as something formerly adhered to)</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>She refused to renege the principles by which she had always lived her life, even if it resulted in losing herbusiness.  尽管有可能使她失去她的事业，但她仍然拒绝放弃她在生命中所坚持的那些原则。</t>
-        </is>
-      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3078,11 +3090,19 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>rigmarole</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
+          <t>renege</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>vt. 放弃，摒弃： to solemnly or formally reject or go back on (as something formerly adhered to)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>She refused to renege the principles by which she had always lived her life, even if it resulted in losing herbusiness.  尽管有可能使她失去她的事业，但她仍然拒绝放弃她在生命中所坚持的那些原则。</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3092,67 +3112,59 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
+          <t>rigmarole</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
           <t>implicit</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>adj. 不言而喻的，心照不宣的： capable of being understood from something else thoughunexpressed
 adj. 无疑问的，无保留的： being without doubt or reserve</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>The implicit agreement among members of the outing club is that everyone pays his or her own way on alltrips.  野外俱乐部成员之间一条心照不宣的约定就是：沿途所有开销都 AA。
 Members of the expedition must have implicit trust in their leaders.   远征的队员必须百分之百地信任他们的领队。</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>marginal</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>adj. 边缘的： located at or near a border
 adj. 不重要的： not of central importance</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>Marginal locations in the open-air market are a bit cheaper.   露天市场边缘的地段通常都要便宜些。
 regards violence as a marginal rather than a central problem  并不把暴力问题当作重要的核心问题来看</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>pivotal</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>adj. 最关键的，最为重要的： of the greatest possible importance</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>The report was missing a pivotal piece of information.   报告遗漏了最为重要的信息。</t>
-        </is>
-      </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3162,17 +3174,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>unavailing</t>
+          <t>pivotal</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>adj. 徒劳的，无果的： producing no results</t>
+          <t>adj. 最关键的，最为重要的： of the greatest possible importance</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>an unavailing effort to avert a war  试图避免战争的徒劳尝试</t>
+          <t>The report was missing a pivotal piece of information.   报告遗漏了最为重要的信息。</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3184,17 +3196,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>cachet</t>
+          <t>unavailing</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>n. 威望，声望： a mark or quality, as of distinction, individuality, or authenticity</t>
+          <t>adj. 徒劳的，无果的： producing no results</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Federal courts have a certain cachet which state courts lack.  联邦法院拥有州立法院所不具备的威信。</t>
+          <t>an unavailing effort to avert a war  试图避免战争的徒劳尝试</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3206,42 +3218,42 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
+          <t>cachet</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>n. 威望，声望： a mark or quality, as of distinction, individuality, or authenticity</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Federal courts have a certain cachet which state courts lack.  联邦法院拥有州立法院所不具备的威信。</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
           <t>graft</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>vt. 移植，移接： to implant (living tissue) surgically or as if surgically</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>The top layer of skin has to be grafted onto the burns.   顶层的皮肤需要被移植到烧伤的伤口上。
 graftold traditions onto the new ones  把老传统移植到新的习俗之上</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>feisty</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>adj. 好斗的，好争论的： having or showing a lively aggressiveness</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>At 66, she was as feisty as ever.   尽管已经 66 岁高龄，她还是一样好斗。</t>
-        </is>
-      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3251,17 +3263,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>cascade</t>
+          <t>feisty</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>n. （尤指小的）瀑布： a steep usually small fall of water</t>
+          <t>adj. 好斗的，好争论的： having or showing a lively aggressiveness</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>The river forms a series of cascades as it drops a total of 200 feet in elevation.  这 条 河 前后 海 拔差 达200 余英尺，故而形成了一系列的小瀑布。</t>
+          <t>At 66, she was as feisty as ever.   尽管已经 66 岁高龄，她还是一样好斗。</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3273,17 +3285,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>domineer</t>
+          <t>cascade</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>vt. 专制统治： to exercise arbitrary or overbearing control</t>
+          <t>n. （尤指小的）瀑布： a steep usually small fall of water</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Her husband and mother-in-law tyrannize her.   她生活在她丈夫和婆婆的高压统治下。</t>
+          <t>The river forms a series of cascades as it drops a total of 200 feet in elevation.  这 条 河 前后 海 拔差 达200 余英尺，故而形成了一系列的小瀑布。</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3295,43 +3307,43 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
+          <t>domineer</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>vt. 专制统治： to exercise arbitrary or overbearing control</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Her husband and mother-in-law tyrannize her.   她生活在她丈夫和婆婆的高压统治下。</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
           <t>vile</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>adj. 丑陋的： unpleasant to look at
 adj. （道德上）可鄙的，卑鄙的： morally despicable or abhorrent</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>a truly vile combination of colors  着实丑陋的混搭色调
 Nothing is so vile as intellectual dishonesty.   没什么比智力上的欺骗更为可鄙的了。</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>poach</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>vt. 水煮： to cook in a liquid heated to the point that it gives off steam</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>He poached an egg for breakfast.  他煮了一个荷包蛋做早饭。</t>
-        </is>
-      </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3341,17 +3353,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>palpitation</t>
+          <t>poach</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>n. （有节奏的）舒张收缩： a rhythmic expanding and contracting</t>
+          <t>vt. 水煮： to cook in a liquid heated to the point that it gives off steam</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>a palpitation of the blood vessels  血管有节奏的舒张收缩</t>
+          <t>He poached an egg for breakfast.  他煮了一个荷包蛋做早饭。</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3363,43 +3375,43 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
+          <t>palpitation</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>n. （有节奏的）舒张收缩： a rhythmic expanding and contracting</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>a palpitation of the blood vessels  血管有节奏的舒张收缩</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
           <t>palaver</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>n. 对话，交流： an exchange of views for the purpose of exploring a subject or deciding an issue
 vi. 闲聊： to talk profusely or idly</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>seemingly endless palaver between the negotiating parties  谈判双方之间看似没有尽头的对话
 Mothers were palavering and drinking coffee while watching their children play.  母 亲 们 一边 看 着她 们的孩子玩耍，一边喝着咖啡闲谈。</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>favoritism</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>n. 偏爱，偏袒： the showing of special favor</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Favoritism blinded the administrator to the benefits of the proposed system for distributing work.   偏 袒 使得经理无法意识到这一待讨论的分配系统所带来的收益。</t>
-        </is>
-      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3409,43 +3421,43 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>favoritism</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>n. 偏爱，偏袒： the showing of special favor</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Favoritism blinded the administrator to the benefits of the proposed system for distributing work.   偏 袒 使得经理无法意识到这一待讨论的分配系统所带来的收益。</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
           <t>overwrought</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>adj. 十分激动的，非常不安的： being in a state of increased activity or agitation
 adj. （装饰）过分华丽的： elaborately and often excessively decorated</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>She became overwrought when she heard that her child was missing.  当她得知自己孩子失踪的消息后变得极其激动和不安。
 The author's prose is overwrought with purple passages and florid metaphors.   这个作者的散文里充满了词藻华丽的段落和比喻，显得有些过分。</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>sequel</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>n. 结果： a result or consequence</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Higher prices are a logical sequel to higher costs for manufacturers.   从逻辑上来说，更高的价格是更高的生产成本的结果。</t>
-        </is>
-      </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3455,17 +3467,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>fad</t>
+          <t>sequel</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>n. （短暂的）流行，时尚： a practice or interest that is very popular for a short time</t>
+          <t>n. 结果： a result or consequence</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Once the fad for that kind of music had passed, nobody would have been caught dead listening to it.   一旦那种流派的音乐流行风刮过之后，就没有人会来听它出丑了。</t>
+          <t>Higher prices are a logical sequel to higher costs for manufacturers.   从逻辑上来说，更高的价格是更高的生产成本的结果。</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3477,43 +3489,43 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
+          <t>fad</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>n. （短暂的）流行，时尚： a practice or interest that is very popular for a short time</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Once the fad for that kind of music had passed, nobody would have been caught dead listening to it.   一旦那种流派的音乐流行风刮过之后，就没有人会来听它出丑了。</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
           <t>arid</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>adj. 干燥的： marked by little or no precipitation or humidity
 adj. 无趣的，无聊的： causing weariness, restlessness, or lack of interest</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>arid wastelands unfit for human habitation  不适合人类居住的干燥荒原
 arid wastelands unfit for human habitation  不适合人类居住的干燥荒原</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>avowal</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>n. 承认： a solemn and often public declaration of the truth or existence of something</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>With jingoism rampant, the peace candidate felt compelled to make an avowal of his patriotism.   在 沙 文主义肆虐的情况下，爱好和平的候选人被迫承认自己是个爱国主义者。</t>
-        </is>
-      </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3523,17 +3535,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>backfire</t>
+          <t>avowal</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>vi. 产生相反的结果，事与愿违： to have the reverse of the desired or expected effect</t>
+          <t>n. 承认： a solemn and often public declaration of the truth or existence of something</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>My plan to throw her a surprise party backfired when she ended up sobbing that everyone had forgottenher birthday.   我本想给她的生日开一个聚会作为惊喜，但没想到事与愿违：她啜泣着说所有人都忘记了她的生日。</t>
+          <t>With jingoism rampant, the peace candidate felt compelled to make an avowal of his patriotism.   在 沙 文主义肆虐的情况下，爱好和平的候选人被迫承认自己是个爱国主义者。</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3545,138 +3557,138 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
+          <t>backfire</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>vi. 产生相反的结果，事与愿违： to have the reverse of the desired or expected effect</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>My plan to throw her a surprise party backfired when she ended up sobbing that everyone had forgottenher birthday.   我本想给她的生日开一个聚会作为惊喜，但没想到事与愿违：她啜泣着说所有人都忘记了她的生日。</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
           <t>baffle</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>vt. 挫败，阻挠： to frustrate or check (a person) as by confusing or perplexing
 vt. 使疑惑： to throw into a state of mental uncertainty</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>baffled by the language barrier  受到语言障碍的阻挠</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>careen</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>vi. 蹒跚而行，不稳地行走： to lurch or swerve while in motion
 vi. 狂奔，快速运动： to rush headlong or carelessly</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>He careened unsteadily to the couch after hitting his head.   在撞到头以后，他摇摇摆摆地走向沙发。
 Sounding its siren, an ambulance careened through the intersection.   救护车响着警笛飞驰通过十字路口。</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>constrict</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>vt. 压缩，压紧： to make smaller or narrower by or as if by binding or squeezing</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>lives constricted by poverty  因为贫穷而拮据的生活
 Severe migraine can be treated with a drug whichconstricts the blood vessels.  某些能使血管收缩的药物可用来治疗严重的偏头痛。</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>dampen</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>vt. （特指稍稍地）弄湿： to make or become slightly or moderately wet
 vt. 抑制，压抑（感情，精力等），泼冷水： to check or diminish the feeling, activity or vigor of</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>dampen a paper towel with water and use it to clean up the mess  把纸巾弄湿用来清扫
 Nothing could dampen their enthusiasm.   没有什么能扼杀他们的激情。
 The oppressive heat dampenedour spirits.  让人难以忍受的酷暑让我们精神不振。</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>debonair</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>adj. 无忧无虑的，不在乎的： having or showing freedom from worries or troubles
 adj. 风度翩翩的： having or showing very polished and worldly manners</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>His debonair dismissal of my inquiry concerning his financial situation led me to believe that nothing waswrong.   对于我有关他个人理财的问题，他表现得毫不在乎，这使我相信没有问题。
 The debonair gentleman charmed all of the ladies in the room.   风度翩翩的绅士吸引了在场的所有女士。</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>fabulous</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>adj. 传说中的： based on, described in, or being a fable</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>The city of Phoenix is named after a fabulous bird that every 500 years destroys itself with fire, only to riseagain from its own ashes.   凤凰城的名字来源于传说中的一种鸟，它每隔 500 年会在火焰中毁灭，然后再从灰烬中重生。</t>
-        </is>
-      </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3686,162 +3698,162 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
+          <t>fabulous</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>adj. 传说中的： based on, described in, or being a fable</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>The city of Phoenix is named after a fabulous bird that every 500 years destroys itself with fire, only to riseagain from its own ashes.   凤凰城的名字来源于传说中的一种鸟，它每隔 500 年会在火焰中毁灭，然后再从灰烬中重生。</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
           <t>hobble</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>vi. 跛行，蹒跚而行： to walk or move along haltingly or with difficulty
 vt. 阻碍，妨碍： to hamper the action or progress of</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>She picked up her cane and hobbled across the room.   她拿起了一根手杖，一拐一拐地穿过了房间。
 We were hobbled by the snowstorm from getting out to do some Christmas shopping.   暴 雪 阻 碍 了 我 们圣诞购物的计划。</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>plush</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>adj. （味道等）浓郁的： having an abundance of some characteristic quality (as flavor)
 adj. 奢华的，豪华的： notably luxurious</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>a plush, ripe wine  味道浓郁的陈年老窖
 a plush castle filled with priceless art and antiques  一座充满了无价艺术品和古董的奢华城堡</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>rhetorical</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>adj. 语言上的，文字上的： of or relating to words or language
 adj. 言辞华丽（却往往无内涵的）： full of fine words and fancy expressionsbut mostly meaninglesswords and phrases</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>The next war that those two nations fight won't be rhetorical - it will be with bombs and bullets.   两 国 之间的下一场战争可不会是斗嘴皮了——他们会来真格的。
 You can skip over the rhetorical passages and still get the gist of the essay.   你可以跳过那些词藻华丽的段落，直接获取文本的主旨。
 The new governor delivered a long rhetorical speech about our state's brightfuture but laid out no specific programs for ensuring it.   新的执政官发表了词藻华丽的演说，畅谈国家的美好未来，但却没有提出实现这一目标的具体措施。</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>trifle</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>n. 不重要的事： something of little importance or value
 vi. 不正经地对待，玩弄： to behave amorously without serious intent</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>Let us not speak of trifles when our nation may be going to war.   战事在即，我们还是先放下这些琐事吧。
 Do not trifle with me unless you mean to ask me to marry you.   如果你不是真心想和我结婚，就请不要来玩弄我的感情。</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>weather</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>vt. 安全渡过（危机等），经受住： to come through (something) safely</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>We haveve weathered worse crises, and so we'll survive this one.  更为严重的危机我们都闯过了，这个也不会有问题的。
 They weathered a terrible storm while at sea.   他们在海上平安渡过了一场巨大的风暴。</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>wily</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>adj. 狡诈的，狡猾的： clever at attaining one's ends by indirect and often deceptive means</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>He is an experienced and wily old statesman.   他是一个经验丰富而狡诈的老销售员。
 His wily plan onlyrebounded on him.  聪明反被聪明误。</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>arable</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>adj. 适合耕种的： fit for or used for the growing of crops</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>explore the west for arable land  向西探索适合耕种的土地</t>
-        </is>
-      </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3851,48 +3863,70 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
+          <t>arable</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>adj. 适合耕种的： fit for or used for the growing of crops</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>explore the west for arable land  向西探索适合耕种的土地</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
           <t>convene</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>vt. 召开，召集： to bring together in assembly by or as if by command
 vi. 聚集，集合： to come together in a body</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>convened the members of the council for an emergency session  召集委员会的成员进入紧急议程
 The students convened in the auditorium to hear the principal’saddress.   学生们在大礼堂集合，聆听校长的致辞。</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>decadent</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>adj. 堕落的，腐败的： having or showing lowered moral character or standards
 n. 放纵的人： a person whose life is devoted to luxury and sensual pleasures
 n. 道德上堕落的人： a person in a condition or process of mental or moral decay</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>Opponents of gambling casinos claim that gambling is a decadent form of entertainment.   赌 场 的 反 对者们宣称赌博是一种堕落腐化的娱乐形式。
 a decadent who squandered her once considerable family fortune  一个挥霍了大量的家族财富的人
 avant-garde artists who were scorned by the bourgeoisie as talentless decadents  被中产阶级鄙视为没有才华的堕落者的前卫艺术家</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>
